--- a/RISK MANAGEMENT.xlsx
+++ b/RISK MANAGEMENT.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Rueda\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B187C6E-A6D4-47B5-8930-2957FCB6C0C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC04C07-4312-42A5-9A5C-511EFAF4C6D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F88405BE-818C-433E-A216-3E57CEEF319A}"/>
   </bookViews>
   <sheets>
-    <sheet name="REAL DIARY" sheetId="3" r:id="rId1"/>
+    <sheet name="REAL TRADE" sheetId="3" r:id="rId1"/>
     <sheet name="GOOD" sheetId="1" r:id="rId2"/>
     <sheet name="BAD" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="15">
   <si>
     <t>TRADING CAPITAL</t>
   </si>
@@ -66,15 +66,36 @@
   <si>
     <t>GOOD/BAD</t>
   </si>
+  <si>
+    <t>GOOD</t>
+  </si>
+  <si>
+    <t>DATE ENTRY</t>
+  </si>
+  <si>
+    <t>TOTAL DURATION</t>
+  </si>
+  <si>
+    <t>DATE EXIT2</t>
+  </si>
+  <si>
+    <t>2020-01-26 00:00:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -114,11 +135,48 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="40">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -130,6 +188,18 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -138,10 +208,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -158,6 +236,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -225,34 +311,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -276,25 +334,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFB96412-A7A1-4303-ADC4-F806BBD7257D}" name="Table15" displayName="Table15" ref="B4:K34" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="B4:K34" xr:uid="{016AD57B-2502-460C-B9CF-4CCF9A5E873C}"/>
-  <tableColumns count="10">
-    <tableColumn id="9" xr3:uid="{8C70DFFD-71D9-4531-84D5-059CE1246340}" name="INDEX" dataDxfId="32"/>
-    <tableColumn id="1" xr3:uid="{1B724424-0C0B-4179-A5EF-F7C7F67EED9D}" name="TRADING CAPITAL" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{D0F8060A-1653-4D3C-A9B3-AB55FDBB3FCB}" name="GOOD/BAD" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{D8860379-47E8-4474-A21B-C666A17F4634}" name="ACCOUNT RISK PERCENTAGE" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{9676FB15-368D-4342-B4BC-56DE34F0E8DB}" name="PIP RISK" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{3107DF79-CF74-404C-B302-9EE38EF7DF5F}" name="USD RISK" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFB96412-A7A1-4303-ADC4-F806BBD7257D}" name="Table15" displayName="Table15" ref="B4:N34" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="B4:N34" xr:uid="{016AD57B-2502-460C-B9CF-4CCF9A5E873C}"/>
+  <tableColumns count="13">
+    <tableColumn id="9" xr3:uid="{8C70DFFD-71D9-4531-84D5-059CE1246340}" name="INDEX" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{08580D37-48C4-4C08-92FE-2E87AACAAF41}" name="DATE ENTRY" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{94C66783-A765-4E75-8EB6-FC2709303E2C}" name="DATE EXIT2" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{A056FBB1-3D5E-48FE-AED3-B0C89110B610}" name="TOTAL DURATION" dataDxfId="0">
+      <calculatedColumnFormula>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{1B724424-0C0B-4179-A5EF-F7C7F67EED9D}" name="TRADING CAPITAL" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{D0F8060A-1653-4D3C-A9B3-AB55FDBB3FCB}" name="GOOD/BAD" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{D8860379-47E8-4474-A21B-C666A17F4634}" name="ACCOUNT RISK PERCENTAGE" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{9676FB15-368D-4342-B4BC-56DE34F0E8DB}" name="PIP RISK" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{3107DF79-CF74-404C-B302-9EE38EF7DF5F}" name="USD RISK" dataDxfId="12">
       <calculatedColumnFormula>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F2067F76-F819-4AD8-8F4A-F8435D258864}" name="PIP VALUE" dataDxfId="27">
+    <tableColumn id="4" xr3:uid="{F2067F76-F819-4AD8-8F4A-F8435D258864}" name="PIP VALUE" dataDxfId="10">
       <calculatedColumnFormula>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1500217E-0EE0-4244-ABB8-0136C3181291}" name="PIP EXPECTED PROFIT" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{B077BFAF-9742-4C53-A2AA-27B1CDF47227}" name="USD EXPECTED PROFIT" dataDxfId="25">
+    <tableColumn id="5" xr3:uid="{1500217E-0EE0-4244-ABB8-0136C3181291}" name="PIP EXPECTED PROFIT" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{B077BFAF-9742-4C53-A2AA-27B1CDF47227}" name="USD EXPECTED PROFIT" dataDxfId="9">
       <calculatedColumnFormula>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A5D819A7-5BFD-4F57-AB8E-7B3640D8597A}" name="RISK/REWARD RATIO" dataDxfId="24">
+    <tableColumn id="7" xr3:uid="{A5D819A7-5BFD-4F57-AB8E-7B3640D8597A}" name="RISK/REWARD RATIO" dataDxfId="36">
       <calculatedColumnFormula>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -303,24 +366,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41E972D8-D4AA-4A6C-8FFA-DF14B4DCCC33}" name="Table1" displayName="Table1" ref="C3:K33" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41E972D8-D4AA-4A6C-8FFA-DF14B4DCCC33}" name="Table1" displayName="Table1" ref="C3:K33" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="C3:K33" xr:uid="{1B926C66-6A47-4DEA-87DD-BE7E443C5F9E}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{8D25DF12-A8A7-420D-B48C-AC31EF6BC441}" name="INDEX" dataDxfId="21"/>
-    <tableColumn id="1" xr3:uid="{CBC2E79F-ADD1-4392-B77B-743B419B46F0}" name="TRADING CAPITAL" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{D6427C45-B49E-480E-8164-6F32A15F7DD3}" name="ACCOUNT RISK PERCENTAGE" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{9DFA3BB7-8023-42F7-BCFD-6314657BD615}" name="PIP RISK" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{1901EA56-079F-430F-B196-C04081630C53}" name="USD RISK" dataDxfId="17">
+    <tableColumn id="9" xr3:uid="{8D25DF12-A8A7-420D-B48C-AC31EF6BC441}" name="INDEX" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{CBC2E79F-ADD1-4392-B77B-743B419B46F0}" name="TRADING CAPITAL" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{D6427C45-B49E-480E-8164-6F32A15F7DD3}" name="ACCOUNT RISK PERCENTAGE" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{9DFA3BB7-8023-42F7-BCFD-6314657BD615}" name="PIP RISK" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{1901EA56-079F-430F-B196-C04081630C53}" name="USD RISK" dataDxfId="29">
       <calculatedColumnFormula>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{67F1725B-9BC4-4244-AD30-63E76B31B9B6}" name="PIP VALUE" dataDxfId="16">
+    <tableColumn id="4" xr3:uid="{67F1725B-9BC4-4244-AD30-63E76B31B9B6}" name="PIP VALUE" dataDxfId="28">
       <calculatedColumnFormula>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{681ADB33-FE03-4FD1-819A-B4BB323852C9}" name="PIP EXPECTED PROFIT" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{DF09356C-C954-4853-84FA-6B1CDF0E6093}" name="USD EXPECTED PROFIT" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{681ADB33-FE03-4FD1-819A-B4BB323852C9}" name="PIP EXPECTED PROFIT" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{DF09356C-C954-4853-84FA-6B1CDF0E6093}" name="USD EXPECTED PROFIT" dataDxfId="26">
       <calculatedColumnFormula>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F08311F7-BD5A-43B8-B580-0D8EE807A2EC}" name="RISK/REWARD RATIO" dataDxfId="13">
+    <tableColumn id="7" xr3:uid="{F08311F7-BD5A-43B8-B580-0D8EE807A2EC}" name="RISK/REWARD RATIO" dataDxfId="25">
       <calculatedColumnFormula>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -329,24 +392,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4E9B839B-D1C2-45D2-8C88-34C4CCF88171}" name="Table16" displayName="Table16" ref="B3:J13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4E9B839B-D1C2-45D2-8C88-34C4CCF88171}" name="Table16" displayName="Table16" ref="B3:J13" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="B3:J13" xr:uid="{F042623C-D115-40B0-B983-A9A350DD5A37}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{4DC0F20D-CBE9-40C6-BCAC-38CE87AF6718}" name="INDEX" dataDxfId="10"/>
-    <tableColumn id="1" xr3:uid="{7B69E99A-C371-42A5-A705-4ABF199E1929}" name="TRADING CAPITAL" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{990D8B71-E36D-4313-A9F5-658D0B527693}" name="ACCOUNT RISK PERCENTAGE" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F2A25D13-F7DD-44D1-A798-D4DCB1671187}" name="PIP RISK" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4328102E-CEDC-438F-8586-0F30CFCB1634}" name="USD RISK" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{4DC0F20D-CBE9-40C6-BCAC-38CE87AF6718}" name="INDEX" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{7B69E99A-C371-42A5-A705-4ABF199E1929}" name="TRADING CAPITAL" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{990D8B71-E36D-4313-A9F5-658D0B527693}" name="ACCOUNT RISK PERCENTAGE" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{F2A25D13-F7DD-44D1-A798-D4DCB1671187}" name="PIP RISK" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{4328102E-CEDC-438F-8586-0F30CFCB1634}" name="USD RISK" dataDxfId="18">
       <calculatedColumnFormula>Table16[[#This Row],[TRADING CAPITAL]]*Table16[[#This Row],[ACCOUNT RISK PERCENTAGE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1A1278A5-B2F9-41BE-91EF-C01CC5991BA1}" name="PIP VALUE" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{1A1278A5-B2F9-41BE-91EF-C01CC5991BA1}" name="PIP VALUE" dataDxfId="17">
       <calculatedColumnFormula>Table16[[#This Row],[USD RISK]]/Table16[[#This Row],[PIP RISK]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{63F94A54-CE10-4764-8622-A00BADD5F1D9}" name="PIP EXPECTED PROFIT" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{46D108FB-D46C-45A4-BC25-32EC40D135A1}" name="USD EXPECTED PROFIT" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{63F94A54-CE10-4764-8622-A00BADD5F1D9}" name="PIP EXPECTED PROFIT" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{46D108FB-D46C-45A4-BC25-32EC40D135A1}" name="USD EXPECTED PROFIT" dataDxfId="15">
       <calculatedColumnFormula>Table16[[#This Row],[PIP EXPECTED PROFIT]]*Table16[[#This Row],[PIP VALUE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C015719D-7FF4-4B39-BB69-7E06EC51BDCE}" name="RISK/REWARD RATIO" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{C015719D-7FF4-4B39-BB69-7E06EC51BDCE}" name="RISK/REWARD RATIO" dataDxfId="14">
       <calculatedColumnFormula>Table16[[#This Row],[PIP EXPECTED PROFIT]]/Table16[[#This Row],[PIP RISK]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -651,1020 +714,1481 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBF4872-442A-4D9E-8622-A21B8B2C8E1C}">
-  <dimension ref="B4:K34"/>
+  <dimension ref="B4:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="11" width="20.7109375" customWidth="1"/>
+    <col min="3" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>30</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
         <v>3</v>
       </c>
-      <c r="H5" s="3">
+      <c r="K5" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>0.2</v>
       </c>
-      <c r="I5" s="3">
-        <v>45</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="L5" s="4">
+        <v>45</v>
+      </c>
+      <c r="M5" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
         <v>9</v>
       </c>
-      <c r="K5" s="3">
+      <c r="N5" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2">
-        <v>0.1</v>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>15</v>
-      </c>
-      <c r="G6" s="3">
+        <f>IF(G5="GOOD",F5+M5,F5-J5)</f>
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="K6" s="3">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0.26</v>
+      </c>
+      <c r="L6" s="4">
+        <v>45</v>
+      </c>
+      <c r="M6" s="3">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>11.700000000000001</v>
+      </c>
+      <c r="N6" s="3">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
         <v>0</v>
       </c>
-      <c r="H6" s="3">
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:F34" si="0">IF(G6="GOOD",F6+M6,F6-J6)</f>
+        <v>50.7</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>15</v>
+      </c>
+      <c r="J7" s="3">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>5.07</v>
+      </c>
+      <c r="K7" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>45</v>
-      </c>
-      <c r="J6" s="3">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="L7" s="4">
+        <v>45</v>
+      </c>
+      <c r="M7" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
+        <v>15.21</v>
+      </c>
+      <c r="N7" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>45</v>
-      </c>
-      <c r="J7" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2">
-        <v>0.1</v>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>65.91</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>15</v>
+      </c>
+      <c r="J8" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+        <v>6.5910000000000002</v>
+      </c>
+      <c r="K8" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>45</v>
-      </c>
-      <c r="J8" s="3">
+        <v>0.43940000000000001</v>
+      </c>
+      <c r="L8" s="4">
+        <v>45</v>
+      </c>
+      <c r="M8" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
+        <v>19.773</v>
+      </c>
+      <c r="N8" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2">
-        <v>0.1</v>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>15</v>
-      </c>
-      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>85.682999999999993</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>15</v>
+      </c>
+      <c r="J9" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+        <v>8.5682999999999989</v>
+      </c>
+      <c r="K9" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>45</v>
-      </c>
-      <c r="J9" s="3">
+        <v>0.57121999999999995</v>
+      </c>
+      <c r="L9" s="4">
+        <v>45</v>
+      </c>
+      <c r="M9" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
+        <v>25.704899999999999</v>
+      </c>
+      <c r="N9" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2">
-        <v>0.1</v>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>111.38789999999999</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>15</v>
+      </c>
+      <c r="J10" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
+        <v>11.13879</v>
+      </c>
+      <c r="K10" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>45</v>
-      </c>
-      <c r="J10" s="3">
+        <v>0.74258599999999997</v>
+      </c>
+      <c r="L10" s="4">
+        <v>45</v>
+      </c>
+      <c r="M10" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+        <v>33.416370000000001</v>
+      </c>
+      <c r="N10" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2">
-        <v>0.1</v>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>15</v>
-      </c>
-      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>144.80426999999997</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>15</v>
+      </c>
+      <c r="J11" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
+        <v>14.480426999999999</v>
+      </c>
+      <c r="K11" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>45</v>
-      </c>
-      <c r="J11" s="3">
+        <v>0.96536179999999994</v>
+      </c>
+      <c r="L11" s="4">
+        <v>45</v>
+      </c>
+      <c r="M11" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
+        <v>43.441280999999996</v>
+      </c>
+      <c r="N11" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2">
-        <v>0.1</v>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>15</v>
-      </c>
-      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>188.24555099999998</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>15</v>
+      </c>
+      <c r="J12" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
+        <v>18.824555099999998</v>
+      </c>
+      <c r="K12" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>45</v>
-      </c>
-      <c r="J12" s="3">
+        <v>1.2549703399999999</v>
+      </c>
+      <c r="L12" s="4">
+        <v>45</v>
+      </c>
+      <c r="M12" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
+        <v>56.473665299999993</v>
+      </c>
+      <c r="N12" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2">
-        <v>0.1</v>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>15</v>
-      </c>
-      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>244.71921629999997</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
+        <v>24.471921629999997</v>
+      </c>
+      <c r="K13" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>45</v>
-      </c>
-      <c r="J13" s="3">
+        <v>1.6314614419999998</v>
+      </c>
+      <c r="L13" s="4">
+        <v>45</v>
+      </c>
+      <c r="M13" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
+        <v>73.415764889999991</v>
+      </c>
+      <c r="N13" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2">
-        <v>0.1</v>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>15</v>
-      </c>
-      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>318.13498118999996</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>15</v>
+      </c>
+      <c r="J14" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+        <v>31.813498118999998</v>
+      </c>
+      <c r="K14" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>45</v>
-      </c>
-      <c r="J14" s="3">
+        <v>2.1208998746000001</v>
+      </c>
+      <c r="L14" s="4">
+        <v>45</v>
+      </c>
+      <c r="M14" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+        <v>95.440494357000006</v>
+      </c>
+      <c r="N14" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2">
-        <v>0.1</v>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>15</v>
-      </c>
-      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>413.575475547</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>15</v>
+      </c>
+      <c r="J15" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
+        <v>41.357547554700005</v>
+      </c>
+      <c r="K15" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>45</v>
-      </c>
-      <c r="J15" s="3">
+        <v>2.7571698369800002</v>
+      </c>
+      <c r="L15" s="4">
+        <v>45</v>
+      </c>
+      <c r="M15" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
+        <v>124.0726426641</v>
+      </c>
+      <c r="N15" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2">
-        <v>0.1</v>
+      <c r="C16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>15</v>
-      </c>
-      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>537.64811821110004</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>15</v>
+      </c>
+      <c r="J16" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
+        <v>53.764811821110008</v>
+      </c>
+      <c r="K16" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>45</v>
-      </c>
-      <c r="J16" s="3">
+        <v>3.5843207880740007</v>
+      </c>
+      <c r="L16" s="4">
+        <v>45</v>
+      </c>
+      <c r="M16" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
+        <v>161.29443546333002</v>
+      </c>
+      <c r="N16" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2">
-        <v>0.1</v>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>15</v>
-      </c>
-      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>698.94255367443009</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>15</v>
+      </c>
+      <c r="J17" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>69.894255367443009</v>
+      </c>
+      <c r="K17" s="3">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>4.6596170244962005</v>
+      </c>
+      <c r="L17" s="4">
+        <v>45</v>
+      </c>
+      <c r="M17" s="3">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>209.68276610232903</v>
+      </c>
+      <c r="N17" s="3">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
         <v>0</v>
       </c>
-      <c r="H17" s="3">
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>908.62531977675917</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>15</v>
+      </c>
+      <c r="J18" s="3">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>90.862531977675928</v>
+      </c>
+      <c r="K18" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>6.0575021318450615</v>
+      </c>
+      <c r="L18" s="4">
+        <v>45</v>
+      </c>
+      <c r="M18" s="3">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>272.58759593302779</v>
+      </c>
+      <c r="N18" s="3">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>15</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
         <v>0</v>
       </c>
-      <c r="I17" s="3">
-        <v>45</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>1181.212915709787</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>118.12129157097871</v>
+      </c>
+      <c r="K19" s="3">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>7.8747527713985805</v>
+      </c>
+      <c r="L19" s="4">
+        <v>45</v>
+      </c>
+      <c r="M19" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
+        <v>354.36387471293614</v>
+      </c>
+      <c r="N19" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>15</v>
-      </c>
-      <c r="G18" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>45</v>
-      </c>
-      <c r="J18" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>15</v>
-      </c>
-      <c r="G19" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>45</v>
-      </c>
-      <c r="J19" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2">
-        <v>0.1</v>
+      <c r="C20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>15</v>
-      </c>
-      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>1535.5767904227232</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>15</v>
+      </c>
+      <c r="J20" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+        <v>153.55767904227233</v>
+      </c>
+      <c r="K20" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>45</v>
-      </c>
-      <c r="J20" s="3">
+        <v>10.237178602818155</v>
+      </c>
+      <c r="L20" s="4">
+        <v>45</v>
+      </c>
+      <c r="M20" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+        <v>460.67303712681695</v>
+      </c>
+      <c r="N20" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2">
-        <v>0.1</v>
+      <c r="C21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>15</v>
-      </c>
-      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>1996.2498275495402</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>15</v>
+      </c>
+      <c r="J21" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
+        <v>199.62498275495403</v>
+      </c>
+      <c r="K21" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>45</v>
-      </c>
-      <c r="J21" s="3">
+        <v>13.308332183663602</v>
+      </c>
+      <c r="L21" s="4">
+        <v>45</v>
+      </c>
+      <c r="M21" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
+        <v>598.87494826486204</v>
+      </c>
+      <c r="N21" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2">
-        <v>0.1</v>
+      <c r="C22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>15</v>
-      </c>
-      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>2595.1247758144023</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>15</v>
+      </c>
+      <c r="J22" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
+        <v>259.51247758144024</v>
+      </c>
+      <c r="K22" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>45</v>
-      </c>
-      <c r="J22" s="3">
+        <v>17.300831838762683</v>
+      </c>
+      <c r="L22" s="4">
+        <v>45</v>
+      </c>
+      <c r="M22" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
+        <v>778.53743274432077</v>
+      </c>
+      <c r="N22" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>19</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="2">
-        <v>0.1</v>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>15</v>
-      </c>
-      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>3373.6622085587233</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>15</v>
+      </c>
+      <c r="J23" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+        <v>337.36622085587237</v>
+      </c>
+      <c r="K23" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>45</v>
-      </c>
-      <c r="J23" s="3">
+        <v>22.491081390391493</v>
+      </c>
+      <c r="L23" s="4">
+        <v>45</v>
+      </c>
+      <c r="M23" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+        <v>1012.0986625676172</v>
+      </c>
+      <c r="N23" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2">
-        <v>0.1</v>
+      <c r="C24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>15</v>
-      </c>
-      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>4385.7608711263401</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>15</v>
+      </c>
+      <c r="J24" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+        <v>438.57608711263401</v>
+      </c>
+      <c r="K24" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>45</v>
-      </c>
-      <c r="J24" s="3">
+        <v>29.238405807508933</v>
+      </c>
+      <c r="L24" s="4">
+        <v>45</v>
+      </c>
+      <c r="M24" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+        <v>1315.728261337902</v>
+      </c>
+      <c r="N24" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>21</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2">
-        <v>0.1</v>
+      <c r="C25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F25" s="3">
-        <v>15</v>
-      </c>
-      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>5701.4891324642422</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>15</v>
+      </c>
+      <c r="J25" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
+        <v>570.14891324642429</v>
+      </c>
+      <c r="K25" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>45</v>
-      </c>
-      <c r="J25" s="3">
+        <v>38.00992754976162</v>
+      </c>
+      <c r="L25" s="4">
+        <v>45</v>
+      </c>
+      <c r="M25" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
+        <v>1710.446739739273</v>
+      </c>
+      <c r="N25" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>22</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2">
-        <v>0.1</v>
+      <c r="C26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>15</v>
-      </c>
-      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>7411.9358722035149</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>15</v>
+      </c>
+      <c r="J26" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+        <v>741.19358722035156</v>
+      </c>
+      <c r="K26" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>45</v>
-      </c>
-      <c r="J26" s="3">
+        <v>49.412905814690106</v>
+      </c>
+      <c r="L26" s="4">
+        <v>45</v>
+      </c>
+      <c r="M26" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+        <v>2223.5807616610546</v>
+      </c>
+      <c r="N26" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>23</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2">
-        <v>0.1</v>
+      <c r="C27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>15</v>
-      </c>
-      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>9635.5166338645686</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>15</v>
+      </c>
+      <c r="J27" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+        <v>963.55166338645688</v>
+      </c>
+      <c r="K27" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>45</v>
-      </c>
-      <c r="J27" s="3">
+        <v>64.236777559097121</v>
+      </c>
+      <c r="L27" s="4">
+        <v>45</v>
+      </c>
+      <c r="M27" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+        <v>2890.6549901593703</v>
+      </c>
+      <c r="N27" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>24</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2">
-        <v>0.1</v>
+      <c r="C28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>15</v>
-      </c>
-      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>12526.171624023938</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>15</v>
+      </c>
+      <c r="J28" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
+        <v>1252.6171624023939</v>
+      </c>
+      <c r="K28" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
-        <v>45</v>
-      </c>
-      <c r="J28" s="3">
+        <v>83.507810826826258</v>
+      </c>
+      <c r="L28" s="4">
+        <v>45</v>
+      </c>
+      <c r="M28" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
+        <v>3757.8514872071814</v>
+      </c>
+      <c r="N28" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>25</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2">
-        <v>0.1</v>
+      <c r="C29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>15</v>
-      </c>
-      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>16284.023111231119</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>15</v>
+      </c>
+      <c r="J29" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
+        <v>1628.402311123112</v>
+      </c>
+      <c r="K29" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>45</v>
-      </c>
-      <c r="J29" s="3">
+        <v>108.56015407487413</v>
+      </c>
+      <c r="L29" s="4">
+        <v>45</v>
+      </c>
+      <c r="M29" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
+        <v>4885.2069333693362</v>
+      </c>
+      <c r="N29" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>26</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2">
-        <v>0.1</v>
+      <c r="C30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F30" s="3">
-        <v>15</v>
-      </c>
-      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>21169.230044600456</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>15</v>
+      </c>
+      <c r="J30" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
+        <v>2116.9230044600458</v>
+      </c>
+      <c r="K30" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>45</v>
-      </c>
-      <c r="J30" s="3">
+        <v>141.12820029733638</v>
+      </c>
+      <c r="L30" s="4">
+        <v>45</v>
+      </c>
+      <c r="M30" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
+        <v>6350.769013380137</v>
+      </c>
+      <c r="N30" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>27</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2">
-        <v>0.1</v>
+      <c r="C31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F31" s="3">
-        <v>15</v>
-      </c>
-      <c r="G31" s="3">
+        <f t="shared" si="0"/>
+        <v>27519.999057980593</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>15</v>
+      </c>
+      <c r="J31" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
+        <v>2751.9999057980594</v>
+      </c>
+      <c r="K31" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>45</v>
-      </c>
-      <c r="J31" s="3">
+        <v>183.46666038653728</v>
+      </c>
+      <c r="L31" s="4">
+        <v>45</v>
+      </c>
+      <c r="M31" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
+        <v>8255.9997173941774</v>
+      </c>
+      <c r="N31" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>28</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2">
-        <v>0.1</v>
+      <c r="C32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>15</v>
-      </c>
-      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>35775.99877537477</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I32" s="4">
+        <v>15</v>
+      </c>
+      <c r="J32" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+        <v>3577.5998775374774</v>
+      </c>
+      <c r="K32" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>45</v>
-      </c>
-      <c r="J32" s="3">
+        <v>238.50665850249848</v>
+      </c>
+      <c r="L32" s="4">
+        <v>45</v>
+      </c>
+      <c r="M32" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+        <v>10732.799632612432</v>
+      </c>
+      <c r="N32" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>29</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2">
-        <v>0.1</v>
+      <c r="C33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>15</v>
-      </c>
-      <c r="G33" s="3">
+        <f t="shared" si="0"/>
+        <v>46508.798407987204</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I33" s="4">
+        <v>15</v>
+      </c>
+      <c r="J33" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+        <v>4650.8798407987206</v>
+      </c>
+      <c r="K33" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>45</v>
-      </c>
-      <c r="J33" s="3">
+        <v>310.05865605324806</v>
+      </c>
+      <c r="L33" s="4">
+        <v>45</v>
+      </c>
+      <c r="M33" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+        <v>13952.639522396163</v>
+      </c>
+      <c r="N33" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>30</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="2">
-        <v>0.1</v>
+      <c r="C34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="5">
+        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
+        <v>0</v>
       </c>
       <c r="F34" s="3">
-        <v>15</v>
-      </c>
-      <c r="G34" s="3">
+        <f t="shared" si="0"/>
+        <v>60461.43793038337</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I34" s="4">
+        <v>15</v>
+      </c>
+      <c r="J34" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
+        <v>6046.1437930383372</v>
+      </c>
+      <c r="K34" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>45</v>
-      </c>
-      <c r="J34" s="3">
+        <v>403.07625286922246</v>
+      </c>
+      <c r="L34" s="4">
+        <v>45</v>
+      </c>
+      <c r="M34" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="3">
+        <v>18138.431379115009</v>
+      </c>
+      <c r="N34" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>$D$5</formula>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G5:G34">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="BAD">
+      <formula>NOT(ISERROR(SEARCH("BAD",G5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="GOOD">
+      <formula>NOT(ISERROR(SEARCH("GOOD",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1673,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFC13FA-2689-4E03-847D-D8C059BA450B}">
   <dimension ref="C3:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,25 +2655,25 @@
         <v>698.94255367443009</v>
       </c>
       <c r="E16" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F16" s="3">
         <v>15</v>
       </c>
       <c r="G16" s="3">
         <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>69.894255367443009</v>
+        <v>34.947127683721504</v>
       </c>
       <c r="H16" s="3">
         <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
-        <v>4.6596170244962005</v>
+        <v>2.3298085122481003</v>
       </c>
       <c r="I16" s="3">
         <v>45</v>
       </c>
       <c r="J16" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
-        <v>209.68276610232903</v>
+        <v>104.84138305116451</v>
       </c>
       <c r="K16" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
@@ -2162,28 +2686,28 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" ref="D17:D33" si="1">D16+J16</f>
-        <v>908.62531977675917</v>
+        <v>803.78393672559457</v>
       </c>
       <c r="E17" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F17" s="3">
         <v>15</v>
       </c>
       <c r="G17" s="3">
         <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>90.862531977675928</v>
+        <v>40.189196836279734</v>
       </c>
       <c r="H17" s="3">
         <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
-        <v>6.0575021318450615</v>
+        <v>2.6792797890853155</v>
       </c>
       <c r="I17" s="3">
         <v>45</v>
       </c>
       <c r="J17" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
-        <v>272.58759593302779</v>
+        <v>120.5675905088392</v>
       </c>
       <c r="K17" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
@@ -2196,28 +2720,28 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" si="1"/>
-        <v>1181.212915709787</v>
+        <v>924.35152723443377</v>
       </c>
       <c r="E18" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F18" s="3">
         <v>15</v>
       </c>
       <c r="G18" s="3">
         <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>118.12129157097871</v>
+        <v>46.21757636172169</v>
       </c>
       <c r="H18" s="3">
         <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
-        <v>7.8747527713985805</v>
+        <v>3.0811717574481126</v>
       </c>
       <c r="I18" s="3">
         <v>45</v>
       </c>
       <c r="J18" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
-        <v>354.36387471293614</v>
+        <v>138.65272908516508</v>
       </c>
       <c r="K18" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
@@ -2230,28 +2754,28 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" si="1"/>
-        <v>1535.5767904227232</v>
+        <v>1063.0042563195989</v>
       </c>
       <c r="E19" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F19" s="3">
         <v>15</v>
       </c>
       <c r="G19" s="3">
         <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>153.55767904227233</v>
+        <v>53.150212815979948</v>
       </c>
       <c r="H19" s="3">
         <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
-        <v>10.237178602818155</v>
+        <v>3.5433475210653298</v>
       </c>
       <c r="I19" s="3">
         <v>45</v>
       </c>
       <c r="J19" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
-        <v>460.67303712681695</v>
+        <v>159.45063844793984</v>
       </c>
       <c r="K19" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
@@ -2264,28 +2788,28 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" si="1"/>
-        <v>1996.2498275495402</v>
+        <v>1222.4548947675387</v>
       </c>
       <c r="E20" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F20" s="3">
         <v>15</v>
       </c>
       <c r="G20" s="3">
         <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>199.62498275495403</v>
+        <v>61.122744738376937</v>
       </c>
       <c r="H20" s="3">
         <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
-        <v>13.308332183663602</v>
+        <v>4.0748496492251292</v>
       </c>
       <c r="I20" s="3">
         <v>45</v>
       </c>
       <c r="J20" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
-        <v>598.87494826486204</v>
+        <v>183.36823421513083</v>
       </c>
       <c r="K20" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
@@ -2298,28 +2822,28 @@
       </c>
       <c r="D21" s="3">
         <f t="shared" si="1"/>
-        <v>2595.1247758144023</v>
+        <v>1405.8231289826695</v>
       </c>
       <c r="E21" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F21" s="3">
         <v>15</v>
       </c>
       <c r="G21" s="3">
         <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>259.51247758144024</v>
+        <v>70.291156449133481</v>
       </c>
       <c r="H21" s="3">
         <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
-        <v>17.300831838762683</v>
+        <v>4.6860770966088987</v>
       </c>
       <c r="I21" s="3">
         <v>45</v>
       </c>
       <c r="J21" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
-        <v>778.53743274432077</v>
+        <v>210.87346934740043</v>
       </c>
       <c r="K21" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
@@ -2332,28 +2856,28 @@
       </c>
       <c r="D22" s="3">
         <f t="shared" si="1"/>
-        <v>3373.6622085587233</v>
+        <v>1616.6965983300699</v>
       </c>
       <c r="E22" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F22" s="3">
         <v>15</v>
       </c>
       <c r="G22" s="3">
         <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>337.36622085587237</v>
+        <v>80.834829916503509</v>
       </c>
       <c r="H22" s="3">
         <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
-        <v>22.491081390391493</v>
+        <v>5.3889886611002336</v>
       </c>
       <c r="I22" s="3">
         <v>45</v>
       </c>
       <c r="J22" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
-        <v>1012.0986625676172</v>
+        <v>242.5044897495105</v>
       </c>
       <c r="K22" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
@@ -2366,28 +2890,28 @@
       </c>
       <c r="D23" s="3">
         <f t="shared" si="1"/>
-        <v>4385.7608711263401</v>
+        <v>1859.2010880795804</v>
       </c>
       <c r="E23" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F23" s="3">
         <v>15</v>
       </c>
       <c r="G23" s="3">
         <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>438.57608711263401</v>
+        <v>92.960054403979029</v>
       </c>
       <c r="H23" s="3">
         <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
-        <v>29.238405807508933</v>
+        <v>6.197336960265269</v>
       </c>
       <c r="I23" s="3">
         <v>45</v>
       </c>
       <c r="J23" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
-        <v>1315.728261337902</v>
+        <v>278.88016321193709</v>
       </c>
       <c r="K23" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
@@ -2400,28 +2924,28 @@
       </c>
       <c r="D24" s="3">
         <f t="shared" si="1"/>
-        <v>5701.4891324642422</v>
+        <v>2138.0812512915172</v>
       </c>
       <c r="E24" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F24" s="3">
         <v>15</v>
       </c>
       <c r="G24" s="3">
         <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>570.14891324642429</v>
+        <v>106.90406256457587</v>
       </c>
       <c r="H24" s="3">
         <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
-        <v>38.00992754976162</v>
+        <v>7.126937504305058</v>
       </c>
       <c r="I24" s="3">
         <v>45</v>
       </c>
       <c r="J24" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
-        <v>1710.446739739273</v>
+        <v>320.71218769372763</v>
       </c>
       <c r="K24" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
@@ -2434,28 +2958,28 @@
       </c>
       <c r="D25" s="3">
         <f t="shared" si="1"/>
-        <v>7411.9358722035149</v>
+        <v>2458.7934389852448</v>
       </c>
       <c r="E25" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F25" s="3">
         <v>15</v>
       </c>
       <c r="G25" s="3">
         <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>741.19358722035156</v>
+        <v>122.93967194926225</v>
       </c>
       <c r="H25" s="3">
         <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
-        <v>49.412905814690106</v>
+        <v>8.1959781299508165</v>
       </c>
       <c r="I25" s="3">
         <v>45</v>
       </c>
       <c r="J25" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
-        <v>2223.5807616610546</v>
+        <v>368.81901584778677</v>
       </c>
       <c r="K25" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
@@ -2468,28 +2992,28 @@
       </c>
       <c r="D26" s="3">
         <f t="shared" si="1"/>
-        <v>9635.5166338645686</v>
+        <v>2827.6124548330317</v>
       </c>
       <c r="E26" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F26" s="3">
         <v>15</v>
       </c>
       <c r="G26" s="3">
         <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>963.55166338645688</v>
+        <v>141.38062274165159</v>
       </c>
       <c r="H26" s="3">
         <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
-        <v>64.236777559097121</v>
+        <v>9.4253748494434397</v>
       </c>
       <c r="I26" s="3">
         <v>45</v>
       </c>
       <c r="J26" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
-        <v>2890.6549901593703</v>
+        <v>424.14186822495481</v>
       </c>
       <c r="K26" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
@@ -2502,28 +3026,28 @@
       </c>
       <c r="D27" s="3">
         <f t="shared" si="1"/>
-        <v>12526.171624023938</v>
+        <v>3251.7543230579868</v>
       </c>
       <c r="E27" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F27" s="3">
         <v>15</v>
       </c>
       <c r="G27" s="3">
         <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>1252.6171624023939</v>
+        <v>162.58771615289936</v>
       </c>
       <c r="H27" s="3">
         <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
-        <v>83.507810826826258</v>
+        <v>10.839181076859957</v>
       </c>
       <c r="I27" s="3">
         <v>45</v>
       </c>
       <c r="J27" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
-        <v>3757.8514872071814</v>
+        <v>487.76314845869803</v>
       </c>
       <c r="K27" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
@@ -2536,28 +3060,28 @@
       </c>
       <c r="D28" s="3">
         <f t="shared" si="1"/>
-        <v>16284.023111231119</v>
+        <v>3739.517471516685</v>
       </c>
       <c r="E28" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F28" s="3">
         <v>15</v>
       </c>
       <c r="G28" s="3">
         <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>1628.402311123112</v>
+        <v>186.97587357583427</v>
       </c>
       <c r="H28" s="3">
         <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
-        <v>108.56015407487413</v>
+        <v>12.465058238388952</v>
       </c>
       <c r="I28" s="3">
         <v>45</v>
       </c>
       <c r="J28" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
-        <v>4885.2069333693362</v>
+        <v>560.92762072750281</v>
       </c>
       <c r="K28" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
@@ -2570,28 +3094,28 @@
       </c>
       <c r="D29" s="3">
         <f t="shared" si="1"/>
-        <v>21169.230044600456</v>
+        <v>4300.4450922441874</v>
       </c>
       <c r="E29" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F29" s="3">
         <v>15</v>
       </c>
       <c r="G29" s="3">
         <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>2116.9230044600458</v>
+        <v>215.02225461220939</v>
       </c>
       <c r="H29" s="3">
         <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
-        <v>141.12820029733638</v>
+        <v>14.334816974147293</v>
       </c>
       <c r="I29" s="3">
         <v>45</v>
       </c>
       <c r="J29" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
-        <v>6350.769013380137</v>
+        <v>645.06676383662818</v>
       </c>
       <c r="K29" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
@@ -2604,28 +3128,28 @@
       </c>
       <c r="D30" s="3">
         <f t="shared" si="1"/>
-        <v>27519.999057980593</v>
+        <v>4945.511856080816</v>
       </c>
       <c r="E30" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F30" s="3">
         <v>15</v>
       </c>
       <c r="G30" s="3">
         <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>2751.9999057980594</v>
+        <v>247.2755928040408</v>
       </c>
       <c r="H30" s="3">
         <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
-        <v>183.46666038653728</v>
+        <v>16.485039520269385</v>
       </c>
       <c r="I30" s="3">
         <v>45</v>
       </c>
       <c r="J30" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
-        <v>8255.9997173941774</v>
+        <v>741.82677841212239</v>
       </c>
       <c r="K30" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
@@ -2638,28 +3162,28 @@
       </c>
       <c r="D31" s="3">
         <f t="shared" si="1"/>
-        <v>35775.99877537477</v>
+        <v>5687.3386344929386</v>
       </c>
       <c r="E31" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F31" s="3">
         <v>15</v>
       </c>
       <c r="G31" s="3">
         <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>3577.5998775374774</v>
+        <v>284.36693172464692</v>
       </c>
       <c r="H31" s="3">
         <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
-        <v>238.50665850249848</v>
+        <v>18.957795448309795</v>
       </c>
       <c r="I31" s="3">
         <v>45</v>
       </c>
       <c r="J31" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
-        <v>10732.799632612432</v>
+        <v>853.10079517394081</v>
       </c>
       <c r="K31" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
@@ -2672,28 +3196,28 @@
       </c>
       <c r="D32" s="3">
         <f t="shared" si="1"/>
-        <v>46508.798407987204</v>
+        <v>6540.4394296668797</v>
       </c>
       <c r="E32" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F32" s="3">
         <v>15</v>
       </c>
       <c r="G32" s="3">
         <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>4650.8798407987206</v>
+        <v>327.02197148334403</v>
       </c>
       <c r="H32" s="3">
         <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
-        <v>310.05865605324806</v>
+        <v>21.801464765556268</v>
       </c>
       <c r="I32" s="3">
         <v>45</v>
       </c>
       <c r="J32" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
-        <v>13952.639522396163</v>
+        <v>981.0659144500321</v>
       </c>
       <c r="K32" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
@@ -2706,28 +3230,28 @@
       </c>
       <c r="D33" s="3">
         <f t="shared" si="1"/>
-        <v>60461.43793038337</v>
+        <v>7521.5053441169121</v>
       </c>
       <c r="E33" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F33" s="3">
         <v>15</v>
       </c>
       <c r="G33" s="3">
         <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>6046.1437930383372</v>
+        <v>376.07526720584565</v>
       </c>
       <c r="H33" s="3">
         <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
-        <v>403.07625286922246</v>
+        <v>25.07168448038971</v>
       </c>
       <c r="I33" s="3">
         <v>45</v>
       </c>
       <c r="J33" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
-        <v>18138.431379115009</v>
+        <v>1128.2258016175369</v>
       </c>
       <c r="K33" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>

--- a/RISK MANAGEMENT.xlsx
+++ b/RISK MANAGEMENT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Rueda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Rueda\Documents\GitHub\Trading_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC04C07-4312-42A5-9A5C-511EFAF4C6D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F024728-10F0-44A6-BD5D-EA53C199209D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F88405BE-818C-433E-A216-3E57CEEF319A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="17">
   <si>
     <t>TRADING CAPITAL</t>
   </si>
@@ -67,19 +67,25 @@
     <t>GOOD/BAD</t>
   </si>
   <si>
-    <t>GOOD</t>
-  </si>
-  <si>
     <t>DATE ENTRY</t>
   </si>
   <si>
     <t>TOTAL DURATION</t>
   </si>
   <si>
-    <t>DATE EXIT2</t>
+    <t>2020-01-26 00:00:00</t>
   </si>
   <si>
-    <t>2020-01-26 00:00:00</t>
+    <t>2020-01-27 17:14:52</t>
+  </si>
+  <si>
+    <t>COMENTARIOS</t>
+  </si>
+  <si>
+    <t>La posición demandó una mayor comisión de la esperada, también debido a la hora de entrada (Justo despues de abierto el mercado) se evidencio alta volatilidad en el par, hay que verificar que el valor del pip calculado en FxPro sea el mismo o similar al de XM. Definitivamente la plataforma MT4 de XM no es de mi agrado en PC, haré lo posible por pasar a FxPro y comerciar con el CTrader</t>
+  </si>
+  <si>
+    <t>DATE EXIT</t>
   </si>
 </sst>
 </file>
@@ -148,14 +154,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i/>
@@ -178,139 +176,141 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -334,30 +334,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFB96412-A7A1-4303-ADC4-F806BBD7257D}" name="Table15" displayName="Table15" ref="B4:N34" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="B4:N34" xr:uid="{016AD57B-2502-460C-B9CF-4CCF9A5E873C}"/>
-  <tableColumns count="13">
-    <tableColumn id="9" xr3:uid="{8C70DFFD-71D9-4531-84D5-059CE1246340}" name="INDEX" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{08580D37-48C4-4C08-92FE-2E87AACAAF41}" name="DATE ENTRY" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{94C66783-A765-4E75-8EB6-FC2709303E2C}" name="DATE EXIT2" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{A056FBB1-3D5E-48FE-AED3-B0C89110B610}" name="TOTAL DURATION" dataDxfId="0">
-      <calculatedColumnFormula>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="1" xr3:uid="{1B724424-0C0B-4179-A5EF-F7C7F67EED9D}" name="TRADING CAPITAL" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{D0F8060A-1653-4D3C-A9B3-AB55FDBB3FCB}" name="GOOD/BAD" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{D8860379-47E8-4474-A21B-C666A17F4634}" name="ACCOUNT RISK PERCENTAGE" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{9676FB15-368D-4342-B4BC-56DE34F0E8DB}" name="PIP RISK" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{3107DF79-CF74-404C-B302-9EE38EF7DF5F}" name="USD RISK" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFB96412-A7A1-4303-ADC4-F806BBD7257D}" name="Table15" displayName="Table15" ref="B4:O34" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="B4:O34" xr:uid="{016AD57B-2502-460C-B9CF-4CCF9A5E873C}"/>
+  <tableColumns count="14">
+    <tableColumn id="9" xr3:uid="{8C70DFFD-71D9-4531-84D5-059CE1246340}" name="INDEX" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{08580D37-48C4-4C08-92FE-2E87AACAAF41}" name="DATE ENTRY" dataDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{94C66783-A765-4E75-8EB6-FC2709303E2C}" name="DATE EXIT" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{A056FBB1-3D5E-48FE-AED3-B0C89110B610}" name="TOTAL DURATION" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{1C835533-5F16-4288-833C-E1AD0B424373}" name="COMENTARIOS" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1B724424-0C0B-4179-A5EF-F7C7F67EED9D}" name="TRADING CAPITAL" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{D0F8060A-1653-4D3C-A9B3-AB55FDBB3FCB}" name="GOOD/BAD" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{D8860379-47E8-4474-A21B-C666A17F4634}" name="ACCOUNT RISK PERCENTAGE" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{9676FB15-368D-4342-B4BC-56DE34F0E8DB}" name="PIP RISK" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{3107DF79-CF74-404C-B302-9EE38EF7DF5F}" name="USD RISK" dataDxfId="29">
       <calculatedColumnFormula>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F2067F76-F819-4AD8-8F4A-F8435D258864}" name="PIP VALUE" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{F2067F76-F819-4AD8-8F4A-F8435D258864}" name="PIP VALUE" dataDxfId="28">
       <calculatedColumnFormula>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1500217E-0EE0-4244-ABB8-0136C3181291}" name="PIP EXPECTED PROFIT" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{B077BFAF-9742-4C53-A2AA-27B1CDF47227}" name="USD EXPECTED PROFIT" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{1500217E-0EE0-4244-ABB8-0136C3181291}" name="PIP EXPECTED PROFIT" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{B077BFAF-9742-4C53-A2AA-27B1CDF47227}" name="USD EXPECTED PROFIT" dataDxfId="26">
       <calculatedColumnFormula>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A5D819A7-5BFD-4F57-AB8E-7B3640D8597A}" name="RISK/REWARD RATIO" dataDxfId="36">
+    <tableColumn id="7" xr3:uid="{A5D819A7-5BFD-4F57-AB8E-7B3640D8597A}" name="RISK/REWARD RATIO" dataDxfId="25">
       <calculatedColumnFormula>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -366,24 +365,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41E972D8-D4AA-4A6C-8FFA-DF14B4DCCC33}" name="Table1" displayName="Table1" ref="C3:K33" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41E972D8-D4AA-4A6C-8FFA-DF14B4DCCC33}" name="Table1" displayName="Table1" ref="C3:K33" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="C3:K33" xr:uid="{1B926C66-6A47-4DEA-87DD-BE7E443C5F9E}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{8D25DF12-A8A7-420D-B48C-AC31EF6BC441}" name="INDEX" dataDxfId="33"/>
-    <tableColumn id="1" xr3:uid="{CBC2E79F-ADD1-4392-B77B-743B419B46F0}" name="TRADING CAPITAL" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{D6427C45-B49E-480E-8164-6F32A15F7DD3}" name="ACCOUNT RISK PERCENTAGE" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{9DFA3BB7-8023-42F7-BCFD-6314657BD615}" name="PIP RISK" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{1901EA56-079F-430F-B196-C04081630C53}" name="USD RISK" dataDxfId="29">
+    <tableColumn id="9" xr3:uid="{8D25DF12-A8A7-420D-B48C-AC31EF6BC441}" name="INDEX" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{CBC2E79F-ADD1-4392-B77B-743B419B46F0}" name="TRADING CAPITAL" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{D6427C45-B49E-480E-8164-6F32A15F7DD3}" name="ACCOUNT RISK PERCENTAGE" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{9DFA3BB7-8023-42F7-BCFD-6314657BD615}" name="PIP RISK" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{1901EA56-079F-430F-B196-C04081630C53}" name="USD RISK" dataDxfId="18">
       <calculatedColumnFormula>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{67F1725B-9BC4-4244-AD30-63E76B31B9B6}" name="PIP VALUE" dataDxfId="28">
+    <tableColumn id="4" xr3:uid="{67F1725B-9BC4-4244-AD30-63E76B31B9B6}" name="PIP VALUE" dataDxfId="17">
       <calculatedColumnFormula>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{681ADB33-FE03-4FD1-819A-B4BB323852C9}" name="PIP EXPECTED PROFIT" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{DF09356C-C954-4853-84FA-6B1CDF0E6093}" name="USD EXPECTED PROFIT" dataDxfId="26">
+    <tableColumn id="5" xr3:uid="{681ADB33-FE03-4FD1-819A-B4BB323852C9}" name="PIP EXPECTED PROFIT" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{DF09356C-C954-4853-84FA-6B1CDF0E6093}" name="USD EXPECTED PROFIT" dataDxfId="15">
       <calculatedColumnFormula>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F08311F7-BD5A-43B8-B580-0D8EE807A2EC}" name="RISK/REWARD RATIO" dataDxfId="25">
+    <tableColumn id="7" xr3:uid="{F08311F7-BD5A-43B8-B580-0D8EE807A2EC}" name="RISK/REWARD RATIO" dataDxfId="14">
       <calculatedColumnFormula>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -392,24 +391,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4E9B839B-D1C2-45D2-8C88-34C4CCF88171}" name="Table16" displayName="Table16" ref="B3:J13" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4E9B839B-D1C2-45D2-8C88-34C4CCF88171}" name="Table16" displayName="Table16" ref="B3:J13" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="B3:J13" xr:uid="{F042623C-D115-40B0-B983-A9A350DD5A37}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{4DC0F20D-CBE9-40C6-BCAC-38CE87AF6718}" name="INDEX" dataDxfId="22"/>
-    <tableColumn id="1" xr3:uid="{7B69E99A-C371-42A5-A705-4ABF199E1929}" name="TRADING CAPITAL" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{990D8B71-E36D-4313-A9F5-658D0B527693}" name="ACCOUNT RISK PERCENTAGE" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{F2A25D13-F7DD-44D1-A798-D4DCB1671187}" name="PIP RISK" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{4328102E-CEDC-438F-8586-0F30CFCB1634}" name="USD RISK" dataDxfId="18">
+    <tableColumn id="9" xr3:uid="{4DC0F20D-CBE9-40C6-BCAC-38CE87AF6718}" name="INDEX" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{7B69E99A-C371-42A5-A705-4ABF199E1929}" name="TRADING CAPITAL" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{990D8B71-E36D-4313-A9F5-658D0B527693}" name="ACCOUNT RISK PERCENTAGE" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{F2A25D13-F7DD-44D1-A798-D4DCB1671187}" name="PIP RISK" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{4328102E-CEDC-438F-8586-0F30CFCB1634}" name="USD RISK" dataDxfId="7">
       <calculatedColumnFormula>Table16[[#This Row],[TRADING CAPITAL]]*Table16[[#This Row],[ACCOUNT RISK PERCENTAGE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1A1278A5-B2F9-41BE-91EF-C01CC5991BA1}" name="PIP VALUE" dataDxfId="17">
+    <tableColumn id="4" xr3:uid="{1A1278A5-B2F9-41BE-91EF-C01CC5991BA1}" name="PIP VALUE" dataDxfId="6">
       <calculatedColumnFormula>Table16[[#This Row],[USD RISK]]/Table16[[#This Row],[PIP RISK]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{63F94A54-CE10-4764-8622-A00BADD5F1D9}" name="PIP EXPECTED PROFIT" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{46D108FB-D46C-45A4-BC25-32EC40D135A1}" name="USD EXPECTED PROFIT" dataDxfId="15">
+    <tableColumn id="5" xr3:uid="{63F94A54-CE10-4764-8622-A00BADD5F1D9}" name="PIP EXPECTED PROFIT" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{46D108FB-D46C-45A4-BC25-32EC40D135A1}" name="USD EXPECTED PROFIT" dataDxfId="4">
       <calculatedColumnFormula>Table16[[#This Row],[PIP EXPECTED PROFIT]]*Table16[[#This Row],[PIP VALUE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C015719D-7FF4-4B39-BB69-7E06EC51BDCE}" name="RISK/REWARD RATIO" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{C015719D-7FF4-4B39-BB69-7E06EC51BDCE}" name="RISK/REWARD RATIO" dataDxfId="3">
       <calculatedColumnFormula>Table16[[#This Row],[PIP EXPECTED PROFIT]]/Table16[[#This Row],[PIP RISK]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -714,1475 +713,1360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBF4872-442A-4D9E-8622-A21B8B2C8E1C}">
-  <dimension ref="B4:N34"/>
+  <dimension ref="B4:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="14" width="20.7109375" customWidth="1"/>
+    <col min="3" max="15" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="L4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3">
         <v>30</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>15</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="H5" s="4"/>
+      <c r="I5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
         <v>3</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>0.2</v>
       </c>
-      <c r="L5" s="4">
-        <v>45</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="M5" s="4">
+        <v>45</v>
+      </c>
+      <c r="N5" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
         <v>9</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <f>IF(G5="GOOD",F5+M5,F5-J5)</f>
-        <v>39</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>15</v>
-      </c>
-      <c r="J6" s="3">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3">
+        <f>IF(H5="GOOD",G5+N5,G5-K5)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>15</v>
+      </c>
+      <c r="K6" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="K6" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="L6" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0.26</v>
-      </c>
-      <c r="L6" s="4">
-        <v>45</v>
-      </c>
-      <c r="M6" s="3">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="M6" s="4">
+        <v>45</v>
+      </c>
+      <c r="N6" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>11.700000000000001</v>
-      </c>
-      <c r="N6" s="3">
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="O6" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" ref="F7:F34" si="0">IF(G6="GOOD",F6+M6,F6-J6)</f>
-        <v>50.7</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>15</v>
-      </c>
-      <c r="J7" s="3">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3">
+        <f t="shared" ref="G7:G34" si="0">IF(H6="GOOD",G6+N6,G6-K6)</f>
+        <v>24.3</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>15</v>
+      </c>
+      <c r="K7" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>5.07</v>
-      </c>
-      <c r="K7" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="L7" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="L7" s="4">
-        <v>45</v>
-      </c>
-      <c r="M7" s="3">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="M7" s="4">
+        <v>45</v>
+      </c>
+      <c r="N7" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>15.21</v>
-      </c>
-      <c r="N7" s="3">
+        <v>7.29</v>
+      </c>
+      <c r="O7" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>65.91</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I8" s="4">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>21.87</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>15</v>
+      </c>
+      <c r="K8" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>6.5910000000000002</v>
-      </c>
-      <c r="K8" s="3">
+        <v>2.1870000000000003</v>
+      </c>
+      <c r="L8" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0.43940000000000001</v>
-      </c>
-      <c r="L8" s="4">
-        <v>45</v>
-      </c>
-      <c r="M8" s="3">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="M8" s="4">
+        <v>45</v>
+      </c>
+      <c r="N8" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>19.773</v>
-      </c>
-      <c r="N8" s="3">
+        <v>6.5610000000000008</v>
+      </c>
+      <c r="O8" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>85.682999999999993</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>15</v>
-      </c>
-      <c r="J9" s="3">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>19.683</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>15</v>
+      </c>
+      <c r="K9" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>8.5682999999999989</v>
-      </c>
-      <c r="K9" s="3">
+        <v>1.9683000000000002</v>
+      </c>
+      <c r="L9" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0.57121999999999995</v>
-      </c>
-      <c r="L9" s="4">
-        <v>45</v>
-      </c>
-      <c r="M9" s="3">
+        <v>0.13122</v>
+      </c>
+      <c r="M9" s="4">
+        <v>45</v>
+      </c>
+      <c r="N9" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>25.704899999999999</v>
-      </c>
-      <c r="N9" s="3">
+        <v>5.9049000000000005</v>
+      </c>
+      <c r="O9" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>111.38789999999999</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>15</v>
-      </c>
-      <c r="J10" s="3">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>17.714700000000001</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>15</v>
+      </c>
+      <c r="K10" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>11.13879</v>
-      </c>
-      <c r="K10" s="3">
+        <v>1.7714700000000001</v>
+      </c>
+      <c r="L10" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0.74258599999999997</v>
-      </c>
-      <c r="L10" s="4">
-        <v>45</v>
-      </c>
-      <c r="M10" s="3">
+        <v>0.11809800000000001</v>
+      </c>
+      <c r="M10" s="4">
+        <v>45</v>
+      </c>
+      <c r="N10" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>33.416370000000001</v>
-      </c>
-      <c r="N10" s="3">
+        <v>5.3144100000000005</v>
+      </c>
+      <c r="O10" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>144.80426999999997</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="4">
-        <v>15</v>
-      </c>
-      <c r="J11" s="3">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>15.94323</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>15</v>
+      </c>
+      <c r="K11" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>14.480426999999999</v>
-      </c>
-      <c r="K11" s="3">
+        <v>1.5943230000000002</v>
+      </c>
+      <c r="L11" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0.96536179999999994</v>
-      </c>
-      <c r="L11" s="4">
-        <v>45</v>
-      </c>
-      <c r="M11" s="3">
+        <v>0.10628820000000001</v>
+      </c>
+      <c r="M11" s="4">
+        <v>45</v>
+      </c>
+      <c r="N11" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>43.441280999999996</v>
-      </c>
-      <c r="N11" s="3">
+        <v>4.7829690000000005</v>
+      </c>
+      <c r="O11" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>188.24555099999998</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>15</v>
-      </c>
-      <c r="J12" s="3">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>14.348907000000001</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>15</v>
+      </c>
+      <c r="K12" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>18.824555099999998</v>
-      </c>
-      <c r="K12" s="3">
+        <v>1.4348907000000002</v>
+      </c>
+      <c r="L12" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>1.2549703399999999</v>
-      </c>
-      <c r="L12" s="4">
-        <v>45</v>
-      </c>
-      <c r="M12" s="3">
+        <v>9.5659380000000016E-2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>45</v>
+      </c>
+      <c r="N12" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>56.473665299999993</v>
-      </c>
-      <c r="N12" s="3">
+        <v>4.3046721000000003</v>
+      </c>
+      <c r="O12" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>244.71921629999997</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I13" s="4">
-        <v>15</v>
-      </c>
-      <c r="J13" s="3">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>12.9140163</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>24.471921629999997</v>
-      </c>
-      <c r="K13" s="3">
+        <v>1.2914016300000002</v>
+      </c>
+      <c r="L13" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>1.6314614419999998</v>
-      </c>
-      <c r="L13" s="4">
-        <v>45</v>
-      </c>
-      <c r="M13" s="3">
+        <v>8.6093442000000006E-2</v>
+      </c>
+      <c r="M13" s="4">
+        <v>45</v>
+      </c>
+      <c r="N13" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>73.415764889999991</v>
-      </c>
-      <c r="N13" s="3">
+        <v>3.8742048900000001</v>
+      </c>
+      <c r="O13" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>318.13498118999996</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I14" s="4">
-        <v>15</v>
-      </c>
-      <c r="J14" s="3">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>11.622614670000001</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>15</v>
+      </c>
+      <c r="K14" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>31.813498118999998</v>
-      </c>
-      <c r="K14" s="3">
+        <v>1.1622614670000002</v>
+      </c>
+      <c r="L14" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>2.1208998746000001</v>
-      </c>
-      <c r="L14" s="4">
-        <v>45</v>
-      </c>
-      <c r="M14" s="3">
+        <v>7.7484097800000012E-2</v>
+      </c>
+      <c r="M14" s="4">
+        <v>45</v>
+      </c>
+      <c r="N14" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>95.440494357000006</v>
-      </c>
-      <c r="N14" s="3">
+        <v>3.4867844010000004</v>
+      </c>
+      <c r="O14" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>413.575475547</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>15</v>
-      </c>
-      <c r="J15" s="3">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>10.460353203</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>15</v>
+      </c>
+      <c r="K15" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>41.357547554700005</v>
-      </c>
-      <c r="K15" s="3">
+        <v>1.0460353203000001</v>
+      </c>
+      <c r="L15" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>2.7571698369800002</v>
-      </c>
-      <c r="L15" s="4">
-        <v>45</v>
-      </c>
-      <c r="M15" s="3">
+        <v>6.9735688020000006E-2</v>
+      </c>
+      <c r="M15" s="4">
+        <v>45</v>
+      </c>
+      <c r="N15" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>124.0726426641</v>
-      </c>
-      <c r="N15" s="3">
+        <v>3.1381059609000004</v>
+      </c>
+      <c r="O15" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>537.64811821110004</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I16" s="4">
-        <v>15</v>
-      </c>
-      <c r="J16" s="3">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>9.4143178827000007</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>15</v>
+      </c>
+      <c r="K16" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>53.764811821110008</v>
-      </c>
-      <c r="K16" s="3">
+        <v>0.94143178827000007</v>
+      </c>
+      <c r="L16" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3.5843207880740007</v>
-      </c>
-      <c r="L16" s="4">
-        <v>45</v>
-      </c>
-      <c r="M16" s="3">
+        <v>6.2762119217999998E-2</v>
+      </c>
+      <c r="M16" s="4">
+        <v>45</v>
+      </c>
+      <c r="N16" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>161.29443546333002</v>
-      </c>
-      <c r="N16" s="3">
+        <v>2.8242953648099998</v>
+      </c>
+      <c r="O16" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>698.94255367443009</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I17" s="4">
-        <v>15</v>
-      </c>
-      <c r="J17" s="3">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>8.4728860944300006</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>15</v>
+      </c>
+      <c r="K17" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>69.894255367443009</v>
-      </c>
-      <c r="K17" s="3">
+        <v>0.84728860944300011</v>
+      </c>
+      <c r="L17" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>4.6596170244962005</v>
-      </c>
-      <c r="L17" s="4">
-        <v>45</v>
-      </c>
-      <c r="M17" s="3">
+        <v>5.6485907296200004E-2</v>
+      </c>
+      <c r="M17" s="4">
+        <v>45</v>
+      </c>
+      <c r="N17" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>209.68276610232903</v>
-      </c>
-      <c r="N17" s="3">
+        <v>2.5418658283290001</v>
+      </c>
+      <c r="O17" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="0"/>
-        <v>908.62531977675917</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I18" s="4">
-        <v>15</v>
-      </c>
-      <c r="J18" s="3">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>7.6255974849870007</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="4">
+        <v>15</v>
+      </c>
+      <c r="K18" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>90.862531977675928</v>
-      </c>
-      <c r="K18" s="3">
+        <v>0.76255974849870012</v>
+      </c>
+      <c r="L18" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>6.0575021318450615</v>
-      </c>
-      <c r="L18" s="4">
-        <v>45</v>
-      </c>
-      <c r="M18" s="3">
+        <v>5.0837316566580006E-2</v>
+      </c>
+      <c r="M18" s="4">
+        <v>45</v>
+      </c>
+      <c r="N18" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>272.58759593302779</v>
-      </c>
-      <c r="N18" s="3">
+        <v>2.2876792454961001</v>
+      </c>
+      <c r="O18" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="0"/>
-        <v>1181.212915709787</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I19" s="4">
-        <v>15</v>
-      </c>
-      <c r="J19" s="3">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>6.8630377364883008</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>15</v>
+      </c>
+      <c r="K19" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>118.12129157097871</v>
-      </c>
-      <c r="K19" s="3">
+        <v>0.68630377364883011</v>
+      </c>
+      <c r="L19" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>7.8747527713985805</v>
-      </c>
-      <c r="L19" s="4">
-        <v>45</v>
-      </c>
-      <c r="M19" s="3">
+        <v>4.5753584909922006E-2</v>
+      </c>
+      <c r="M19" s="4">
+        <v>45</v>
+      </c>
+      <c r="N19" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>354.36387471293614</v>
-      </c>
-      <c r="N19" s="3">
+        <v>2.0589113209464904</v>
+      </c>
+      <c r="O19" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="0"/>
-        <v>1535.5767904227232</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I20" s="4">
-        <v>15</v>
-      </c>
-      <c r="J20" s="3">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>6.1767339628394708</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>15</v>
+      </c>
+      <c r="K20" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>153.55767904227233</v>
-      </c>
-      <c r="K20" s="3">
+        <v>0.61767339628394713</v>
+      </c>
+      <c r="L20" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>10.237178602818155</v>
-      </c>
-      <c r="L20" s="4">
-        <v>45</v>
-      </c>
-      <c r="M20" s="3">
+        <v>4.1178226418929806E-2</v>
+      </c>
+      <c r="M20" s="4">
+        <v>45</v>
+      </c>
+      <c r="N20" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>460.67303712681695</v>
-      </c>
-      <c r="N20" s="3">
+        <v>1.8530201888518412</v>
+      </c>
+      <c r="O20" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>1996.2498275495402</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I21" s="4">
-        <v>15</v>
-      </c>
-      <c r="J21" s="3">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5590605665555239</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>15</v>
+      </c>
+      <c r="K21" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>199.62498275495403</v>
-      </c>
-      <c r="K21" s="3">
+        <v>0.55590605665555237</v>
+      </c>
+      <c r="L21" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>13.308332183663602</v>
-      </c>
-      <c r="L21" s="4">
-        <v>45</v>
-      </c>
-      <c r="M21" s="3">
+        <v>3.7060403777036822E-2</v>
+      </c>
+      <c r="M21" s="4">
+        <v>45</v>
+      </c>
+      <c r="N21" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>598.87494826486204</v>
-      </c>
-      <c r="N21" s="3">
+        <v>1.667718169966657</v>
+      </c>
+      <c r="O21" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>2595.1247758144023</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I22" s="4">
-        <v>15</v>
-      </c>
-      <c r="J22" s="3">
+        <v>12</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>5.0031545098999715</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>15</v>
+      </c>
+      <c r="K22" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>259.51247758144024</v>
-      </c>
-      <c r="K22" s="3">
+        <v>0.50031545098999719</v>
+      </c>
+      <c r="L22" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>17.300831838762683</v>
-      </c>
-      <c r="L22" s="4">
-        <v>45</v>
-      </c>
-      <c r="M22" s="3">
+        <v>3.3354363399333148E-2</v>
+      </c>
+      <c r="M22" s="4">
+        <v>45</v>
+      </c>
+      <c r="N22" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>778.53743274432077</v>
-      </c>
-      <c r="N22" s="3">
+        <v>1.5009463529699916</v>
+      </c>
+      <c r="O22" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>19</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>3373.6622085587233</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I23" s="4">
-        <v>15</v>
-      </c>
-      <c r="J23" s="3">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5028390589099745</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>15</v>
+      </c>
+      <c r="K23" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>337.36622085587237</v>
-      </c>
-      <c r="K23" s="3">
+        <v>0.45028390589099748</v>
+      </c>
+      <c r="L23" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>22.491081390391493</v>
-      </c>
-      <c r="L23" s="4">
-        <v>45</v>
-      </c>
-      <c r="M23" s="3">
+        <v>3.0018927059399833E-2</v>
+      </c>
+      <c r="M23" s="4">
+        <v>45</v>
+      </c>
+      <c r="N23" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>1012.0986625676172</v>
-      </c>
-      <c r="N23" s="3">
+        <v>1.3508517176729924</v>
+      </c>
+      <c r="O23" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" si="0"/>
-        <v>4385.7608711263401</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I24" s="4">
-        <v>15</v>
-      </c>
-      <c r="J24" s="3">
+        <v>12</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>4.052555153018977</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>15</v>
+      </c>
+      <c r="K24" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>438.57608711263401</v>
-      </c>
-      <c r="K24" s="3">
+        <v>0.40525551530189774</v>
+      </c>
+      <c r="L24" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>29.238405807508933</v>
-      </c>
-      <c r="L24" s="4">
-        <v>45</v>
-      </c>
-      <c r="M24" s="3">
+        <v>2.701703435345985E-2</v>
+      </c>
+      <c r="M24" s="4">
+        <v>45</v>
+      </c>
+      <c r="N24" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>1315.728261337902</v>
-      </c>
-      <c r="N24" s="3">
+        <v>1.2157665459056932</v>
+      </c>
+      <c r="O24" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>21</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>5701.4891324642422</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I25" s="4">
-        <v>15</v>
-      </c>
-      <c r="J25" s="3">
+        <v>12</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6472996377170794</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>15</v>
+      </c>
+      <c r="K25" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>570.14891324642429</v>
-      </c>
-      <c r="K25" s="3">
+        <v>0.36472996377170797</v>
+      </c>
+      <c r="L25" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>38.00992754976162</v>
-      </c>
-      <c r="L25" s="4">
-        <v>45</v>
-      </c>
-      <c r="M25" s="3">
+        <v>2.4315330918113866E-2</v>
+      </c>
+      <c r="M25" s="4">
+        <v>45</v>
+      </c>
+      <c r="N25" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>1710.446739739273</v>
-      </c>
-      <c r="N25" s="3">
+        <v>1.094189891315124</v>
+      </c>
+      <c r="O25" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>22</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" si="0"/>
-        <v>7411.9358722035149</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I26" s="4">
-        <v>15</v>
-      </c>
-      <c r="J26" s="3">
+        <v>12</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2825696739453716</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>15</v>
+      </c>
+      <c r="K26" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>741.19358722035156</v>
-      </c>
-      <c r="K26" s="3">
+        <v>0.32825696739453719</v>
+      </c>
+      <c r="L26" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>49.412905814690106</v>
-      </c>
-      <c r="L26" s="4">
-        <v>45</v>
-      </c>
-      <c r="M26" s="3">
+        <v>2.1883797826302478E-2</v>
+      </c>
+      <c r="M26" s="4">
+        <v>45</v>
+      </c>
+      <c r="N26" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>2223.5807616610546</v>
-      </c>
-      <c r="N26" s="3">
+        <v>0.98477090218361152</v>
+      </c>
+      <c r="O26" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>23</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="0"/>
-        <v>9635.5166338645686</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I27" s="4">
-        <v>15</v>
-      </c>
-      <c r="J27" s="3">
+        <v>12</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>2.9543127065508346</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="4">
+        <v>15</v>
+      </c>
+      <c r="K27" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>963.55166338645688</v>
-      </c>
-      <c r="K27" s="3">
+        <v>0.29543127065508346</v>
+      </c>
+      <c r="L27" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>64.236777559097121</v>
-      </c>
-      <c r="L27" s="4">
-        <v>45</v>
-      </c>
-      <c r="M27" s="3">
+        <v>1.9695418043672232E-2</v>
+      </c>
+      <c r="M27" s="4">
+        <v>45</v>
+      </c>
+      <c r="N27" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>2890.6549901593703</v>
-      </c>
-      <c r="N27" s="3">
+        <v>0.88629381196525048</v>
+      </c>
+      <c r="O27" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>24</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="0"/>
-        <v>12526.171624023938</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I28" s="4">
-        <v>15</v>
-      </c>
-      <c r="J28" s="3">
+        <v>12</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6588814358957511</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="4">
+        <v>15</v>
+      </c>
+      <c r="K28" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>1252.6171624023939</v>
-      </c>
-      <c r="K28" s="3">
+        <v>0.26588814358957513</v>
+      </c>
+      <c r="L28" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>83.507810826826258</v>
-      </c>
-      <c r="L28" s="4">
-        <v>45</v>
-      </c>
-      <c r="M28" s="3">
+        <v>1.7725876239305008E-2</v>
+      </c>
+      <c r="M28" s="4">
+        <v>45</v>
+      </c>
+      <c r="N28" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>3757.8514872071814</v>
-      </c>
-      <c r="N28" s="3">
+        <v>0.7976644307687254</v>
+      </c>
+      <c r="O28" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>25</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" si="0"/>
-        <v>16284.023111231119</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I29" s="4">
-        <v>15</v>
-      </c>
-      <c r="J29" s="3">
+        <v>12</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3929932923061759</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>15</v>
+      </c>
+      <c r="K29" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>1628.402311123112</v>
-      </c>
-      <c r="K29" s="3">
+        <v>0.23929932923061759</v>
+      </c>
+      <c r="L29" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>108.56015407487413</v>
-      </c>
-      <c r="L29" s="4">
-        <v>45</v>
-      </c>
-      <c r="M29" s="3">
+        <v>1.5953288615374504E-2</v>
+      </c>
+      <c r="M29" s="4">
+        <v>45</v>
+      </c>
+      <c r="N29" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>4885.2069333693362</v>
-      </c>
-      <c r="N29" s="3">
+        <v>0.71789798769185265</v>
+      </c>
+      <c r="O29" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>26</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <f t="shared" si="0"/>
-        <v>21169.230044600456</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I30" s="4">
-        <v>15</v>
-      </c>
-      <c r="J30" s="3">
+        <v>12</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1536939630755585</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>15</v>
+      </c>
+      <c r="K30" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>2116.9230044600458</v>
-      </c>
-      <c r="K30" s="3">
+        <v>0.21536939630755586</v>
+      </c>
+      <c r="L30" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>141.12820029733638</v>
-      </c>
-      <c r="L30" s="4">
-        <v>45</v>
-      </c>
-      <c r="M30" s="3">
+        <v>1.4357959753837057E-2</v>
+      </c>
+      <c r="M30" s="4">
+        <v>45</v>
+      </c>
+      <c r="N30" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>6350.769013380137</v>
-      </c>
-      <c r="N30" s="3">
+        <v>0.64610818892266753</v>
+      </c>
+      <c r="O30" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>27</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" si="0"/>
-        <v>27519.999057980593</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I31" s="4">
-        <v>15</v>
-      </c>
-      <c r="J31" s="3">
+        <v>12</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9383245667680027</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>15</v>
+      </c>
+      <c r="K31" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>2751.9999057980594</v>
-      </c>
-      <c r="K31" s="3">
+        <v>0.19383245667680027</v>
+      </c>
+      <c r="L31" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>183.46666038653728</v>
-      </c>
-      <c r="L31" s="4">
-        <v>45</v>
-      </c>
-      <c r="M31" s="3">
+        <v>1.2922163778453351E-2</v>
+      </c>
+      <c r="M31" s="4">
+        <v>45</v>
+      </c>
+      <c r="N31" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>8255.9997173941774</v>
-      </c>
-      <c r="N31" s="3">
+        <v>0.58149737003040081</v>
+      </c>
+      <c r="O31" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>28</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <f t="shared" si="0"/>
-        <v>35775.99877537477</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I32" s="4">
-        <v>15</v>
-      </c>
-      <c r="J32" s="3">
+        <v>12</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7444921100912025</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J32" s="4">
+        <v>15</v>
+      </c>
+      <c r="K32" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>3577.5998775374774</v>
-      </c>
-      <c r="K32" s="3">
+        <v>0.17444921100912025</v>
+      </c>
+      <c r="L32" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>238.50665850249848</v>
-      </c>
-      <c r="L32" s="4">
-        <v>45</v>
-      </c>
-      <c r="M32" s="3">
+        <v>1.1629947400608017E-2</v>
+      </c>
+      <c r="M32" s="4">
+        <v>45</v>
+      </c>
+      <c r="N32" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>10732.799632612432</v>
-      </c>
-      <c r="N32" s="3">
+        <v>0.52334763302736076</v>
+      </c>
+      <c r="O32" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>29</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <f t="shared" si="0"/>
-        <v>46508.798407987204</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I33" s="4">
-        <v>15</v>
-      </c>
-      <c r="J33" s="3">
+        <v>12</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5700428990820823</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J33" s="4">
+        <v>15</v>
+      </c>
+      <c r="K33" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>4650.8798407987206</v>
-      </c>
-      <c r="K33" s="3">
+        <v>0.15700428990820825</v>
+      </c>
+      <c r="L33" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>310.05865605324806</v>
-      </c>
-      <c r="L33" s="4">
-        <v>45</v>
-      </c>
-      <c r="M33" s="3">
+        <v>1.0466952660547217E-2</v>
+      </c>
+      <c r="M33" s="4">
+        <v>45</v>
+      </c>
+      <c r="N33" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>13952.639522396163</v>
-      </c>
-      <c r="N33" s="3">
+        <v>0.47101286972462481</v>
+      </c>
+      <c r="O33" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>30</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="5">
-        <f>Table15[[#This Row],[DATE ENTRY]]-Table15[[#This Row],[DATE EXIT2]]</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" si="0"/>
-        <v>60461.43793038337</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I34" s="4">
-        <v>15</v>
-      </c>
-      <c r="J34" s="3">
+        <v>12</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="3">
+        <f t="shared" si="0"/>
+        <v>1.413038609173874</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J34" s="4">
+        <v>15</v>
+      </c>
+      <c r="K34" s="3">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>6046.1437930383372</v>
-      </c>
-      <c r="K34" s="3">
+        <v>0.14130386091738742</v>
+      </c>
+      <c r="L34" s="3">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>403.07625286922246</v>
-      </c>
-      <c r="L34" s="4">
-        <v>45</v>
-      </c>
-      <c r="M34" s="3">
+        <v>9.4202573944924938E-3</v>
+      </c>
+      <c r="M34" s="4">
+        <v>45</v>
+      </c>
+      <c r="N34" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>18138.431379115009</v>
-      </c>
-      <c r="N34" s="3">
+        <v>0.42391158275216223</v>
+      </c>
+      <c r="O34" s="3">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G5:G34">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="BAD">
-      <formula>NOT(ISERROR(SEARCH("BAD",G5)))</formula>
+  <conditionalFormatting sqref="H5:H34">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="BAD">
+      <formula>NOT(ISERROR(SEARCH("BAD",H5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="GOOD">
-      <formula>NOT(ISERROR(SEARCH("GOOD",G5)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="GOOD">
+      <formula>NOT(ISERROR(SEARCH("GOOD",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RISK MANAGEMENT.xlsx
+++ b/RISK MANAGEMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Rueda\Documents\GitHub\Trading_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F024728-10F0-44A6-BD5D-EA53C199209D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A580D2B4-95D0-44B2-9470-48D0BE32E3A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F88405BE-818C-433E-A216-3E57CEEF319A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
   <si>
     <t>TRADING CAPITAL</t>
   </si>
@@ -70,22 +70,40 @@
     <t>DATE ENTRY</t>
   </si>
   <si>
-    <t>TOTAL DURATION</t>
-  </si>
-  <si>
     <t>2020-01-26 00:00:00</t>
-  </si>
-  <si>
-    <t>2020-01-27 17:14:52</t>
   </si>
   <si>
     <t>COMENTARIOS</t>
   </si>
   <si>
-    <t>La posición demandó una mayor comisión de la esperada, también debido a la hora de entrada (Justo despues de abierto el mercado) se evidencio alta volatilidad en el par, hay que verificar que el valor del pip calculado en FxPro sea el mismo o similar al de XM. Definitivamente la plataforma MT4 de XM no es de mi agrado en PC, haré lo posible por pasar a FxPro y comerciar con el CTrader</t>
+    <t>DATE EXIT</t>
   </si>
   <si>
-    <t>DATE EXIT</t>
+    <t>BAD</t>
+  </si>
+  <si>
+    <t>2020-01-26 17:14:52</t>
+  </si>
+  <si>
+    <t>2020-01-27 06:12:59</t>
+  </si>
+  <si>
+    <t>2020-01-27 02:59:18</t>
+  </si>
+  <si>
+    <t>2020-01-27 19:43:55</t>
+  </si>
+  <si>
+    <t>GBPUSD: La posición demandó una mayor comisión de la esperada, también debido a la hora de entrada (Justo despues de abierto el mercado) se evidencio alta volatilidad en el par, hay que verificar que el valor del pip calculado en FxPro sea el mismo o similar al de XM. Definitivamente la plataforma MT4 de XM no es de mi agrado en PC, haré lo posible por pasar a FxPro y comerciar con el CTrader</t>
+  </si>
+  <si>
+    <t>GBPUSD: La posición se abre tras el cierre de la anterior debido al rompimiento del stop loss debido a un pullback hacia la linea de 25 WMA, entro justo por debajo de la linea 25 WMA en posición de venta.</t>
+  </si>
+  <si>
+    <t>USDJPY: Se abre la posición siguiendo el marco temporal de 1H, los indicadores me sugieren una compra hasta la WMA de 25.</t>
+  </si>
+  <si>
+    <t>GOOD</t>
   </si>
 </sst>
 </file>
@@ -127,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -142,39 +160,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -263,62 +270,84 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -334,29 +363,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFB96412-A7A1-4303-ADC4-F806BBD7257D}" name="Table15" displayName="Table15" ref="B4:O34" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="B4:O34" xr:uid="{016AD57B-2502-460C-B9CF-4CCF9A5E873C}"/>
-  <tableColumns count="14">
-    <tableColumn id="9" xr3:uid="{8C70DFFD-71D9-4531-84D5-059CE1246340}" name="INDEX" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{08580D37-48C4-4C08-92FE-2E87AACAAF41}" name="DATE ENTRY" dataDxfId="36"/>
-    <tableColumn id="14" xr3:uid="{94C66783-A765-4E75-8EB6-FC2709303E2C}" name="DATE EXIT" dataDxfId="35"/>
-    <tableColumn id="13" xr3:uid="{A056FBB1-3D5E-48FE-AED3-B0C89110B610}" name="TOTAL DURATION" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{1C835533-5F16-4288-833C-E1AD0B424373}" name="COMENTARIOS" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{1B724424-0C0B-4179-A5EF-F7C7F67EED9D}" name="TRADING CAPITAL" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{D0F8060A-1653-4D3C-A9B3-AB55FDBB3FCB}" name="GOOD/BAD" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{D8860379-47E8-4474-A21B-C666A17F4634}" name="ACCOUNT RISK PERCENTAGE" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{9676FB15-368D-4342-B4BC-56DE34F0E8DB}" name="PIP RISK" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{3107DF79-CF74-404C-B302-9EE38EF7DF5F}" name="USD RISK" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AFB96412-A7A1-4303-ADC4-F806BBD7257D}" name="Table15" displayName="Table15" ref="B4:N34" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="B4:N34" xr:uid="{016AD57B-2502-460C-B9CF-4CCF9A5E873C}"/>
+  <tableColumns count="13">
+    <tableColumn id="9" xr3:uid="{8C70DFFD-71D9-4531-84D5-059CE1246340}" name="INDEX" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{08580D37-48C4-4C08-92FE-2E87AACAAF41}" name="DATE ENTRY" dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{94C66783-A765-4E75-8EB6-FC2709303E2C}" name="DATE EXIT" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{1C835533-5F16-4288-833C-E1AD0B424373}" name="COMENTARIOS" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{1B724424-0C0B-4179-A5EF-F7C7F67EED9D}" name="TRADING CAPITAL" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{D0F8060A-1653-4D3C-A9B3-AB55FDBB3FCB}" name="GOOD/BAD" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{D8860379-47E8-4474-A21B-C666A17F4634}" name="ACCOUNT RISK PERCENTAGE" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{9676FB15-368D-4342-B4BC-56DE34F0E8DB}" name="PIP RISK" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{3107DF79-CF74-404C-B302-9EE38EF7DF5F}" name="USD RISK" dataDxfId="26">
       <calculatedColumnFormula>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F2067F76-F819-4AD8-8F4A-F8435D258864}" name="PIP VALUE" dataDxfId="28">
+    <tableColumn id="4" xr3:uid="{F2067F76-F819-4AD8-8F4A-F8435D258864}" name="PIP VALUE" dataDxfId="25">
       <calculatedColumnFormula>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1500217E-0EE0-4244-ABB8-0136C3181291}" name="PIP EXPECTED PROFIT" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{B077BFAF-9742-4C53-A2AA-27B1CDF47227}" name="USD EXPECTED PROFIT" dataDxfId="26">
+    <tableColumn id="5" xr3:uid="{1500217E-0EE0-4244-ABB8-0136C3181291}" name="PIP EXPECTED PROFIT" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{B077BFAF-9742-4C53-A2AA-27B1CDF47227}" name="USD EXPECTED PROFIT" dataDxfId="23">
       <calculatedColumnFormula>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A5D819A7-5BFD-4F57-AB8E-7B3640D8597A}" name="RISK/REWARD RATIO" dataDxfId="25">
+    <tableColumn id="7" xr3:uid="{A5D819A7-5BFD-4F57-AB8E-7B3640D8597A}" name="RISK/REWARD RATIO" dataDxfId="22">
       <calculatedColumnFormula>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -365,24 +393,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41E972D8-D4AA-4A6C-8FFA-DF14B4DCCC33}" name="Table1" displayName="Table1" ref="C3:K33" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="C3:K33" xr:uid="{1B926C66-6A47-4DEA-87DD-BE7E443C5F9E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41E972D8-D4AA-4A6C-8FFA-DF14B4DCCC33}" name="Table1" displayName="Table1" ref="C3:K53" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="C3:K53" xr:uid="{1B926C66-6A47-4DEA-87DD-BE7E443C5F9E}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{8D25DF12-A8A7-420D-B48C-AC31EF6BC441}" name="INDEX" dataDxfId="22"/>
-    <tableColumn id="1" xr3:uid="{CBC2E79F-ADD1-4392-B77B-743B419B46F0}" name="TRADING CAPITAL" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{D6427C45-B49E-480E-8164-6F32A15F7DD3}" name="ACCOUNT RISK PERCENTAGE" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{9DFA3BB7-8023-42F7-BCFD-6314657BD615}" name="PIP RISK" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{1901EA56-079F-430F-B196-C04081630C53}" name="USD RISK" dataDxfId="18">
+    <tableColumn id="9" xr3:uid="{8D25DF12-A8A7-420D-B48C-AC31EF6BC441}" name="INDEX" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{CBC2E79F-ADD1-4392-B77B-743B419B46F0}" name="TRADING CAPITAL" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{D6427C45-B49E-480E-8164-6F32A15F7DD3}" name="ACCOUNT RISK PERCENTAGE" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{9DFA3BB7-8023-42F7-BCFD-6314657BD615}" name="PIP RISK" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{1901EA56-079F-430F-B196-C04081630C53}" name="USD RISK" dataDxfId="15">
       <calculatedColumnFormula>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{67F1725B-9BC4-4244-AD30-63E76B31B9B6}" name="PIP VALUE" dataDxfId="17">
+    <tableColumn id="4" xr3:uid="{67F1725B-9BC4-4244-AD30-63E76B31B9B6}" name="PIP VALUE" dataDxfId="14">
       <calculatedColumnFormula>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{681ADB33-FE03-4FD1-819A-B4BB323852C9}" name="PIP EXPECTED PROFIT" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{DF09356C-C954-4853-84FA-6B1CDF0E6093}" name="USD EXPECTED PROFIT" dataDxfId="15">
+    <tableColumn id="5" xr3:uid="{681ADB33-FE03-4FD1-819A-B4BB323852C9}" name="PIP EXPECTED PROFIT" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{DF09356C-C954-4853-84FA-6B1CDF0E6093}" name="USD EXPECTED PROFIT" dataDxfId="12">
       <calculatedColumnFormula>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F08311F7-BD5A-43B8-B580-0D8EE807A2EC}" name="RISK/REWARD RATIO" dataDxfId="14">
+    <tableColumn id="7" xr3:uid="{F08311F7-BD5A-43B8-B580-0D8EE807A2EC}" name="RISK/REWARD RATIO" dataDxfId="11">
       <calculatedColumnFormula>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -391,24 +419,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4E9B839B-D1C2-45D2-8C88-34C4CCF88171}" name="Table16" displayName="Table16" ref="B3:J13" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4E9B839B-D1C2-45D2-8C88-34C4CCF88171}" name="Table16" displayName="Table16" ref="B3:J13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="B3:J13" xr:uid="{F042623C-D115-40B0-B983-A9A350DD5A37}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{4DC0F20D-CBE9-40C6-BCAC-38CE87AF6718}" name="INDEX" dataDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{7B69E99A-C371-42A5-A705-4ABF199E1929}" name="TRADING CAPITAL" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{990D8B71-E36D-4313-A9F5-658D0B527693}" name="ACCOUNT RISK PERCENTAGE" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{F2A25D13-F7DD-44D1-A798-D4DCB1671187}" name="PIP RISK" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4328102E-CEDC-438F-8586-0F30CFCB1634}" name="USD RISK" dataDxfId="7">
+    <tableColumn id="9" xr3:uid="{4DC0F20D-CBE9-40C6-BCAC-38CE87AF6718}" name="INDEX" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{7B69E99A-C371-42A5-A705-4ABF199E1929}" name="TRADING CAPITAL" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{990D8B71-E36D-4313-A9F5-658D0B527693}" name="ACCOUNT RISK PERCENTAGE" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{F2A25D13-F7DD-44D1-A798-D4DCB1671187}" name="PIP RISK" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{4328102E-CEDC-438F-8586-0F30CFCB1634}" name="USD RISK" dataDxfId="4">
       <calculatedColumnFormula>Table16[[#This Row],[TRADING CAPITAL]]*Table16[[#This Row],[ACCOUNT RISK PERCENTAGE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1A1278A5-B2F9-41BE-91EF-C01CC5991BA1}" name="PIP VALUE" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{1A1278A5-B2F9-41BE-91EF-C01CC5991BA1}" name="PIP VALUE" dataDxfId="3">
       <calculatedColumnFormula>Table16[[#This Row],[USD RISK]]/Table16[[#This Row],[PIP RISK]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{63F94A54-CE10-4764-8622-A00BADD5F1D9}" name="PIP EXPECTED PROFIT" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{46D108FB-D46C-45A4-BC25-32EC40D135A1}" name="USD EXPECTED PROFIT" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{63F94A54-CE10-4764-8622-A00BADD5F1D9}" name="PIP EXPECTED PROFIT" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{46D108FB-D46C-45A4-BC25-32EC40D135A1}" name="USD EXPECTED PROFIT" dataDxfId="1">
       <calculatedColumnFormula>Table16[[#This Row],[PIP EXPECTED PROFIT]]*Table16[[#This Row],[PIP VALUE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C015719D-7FF4-4B39-BB69-7E06EC51BDCE}" name="RISK/REWARD RATIO" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{C015719D-7FF4-4B39-BB69-7E06EC51BDCE}" name="RISK/REWARD RATIO" dataDxfId="0">
       <calculatedColumnFormula>Table16[[#This Row],[PIP EXPECTED PROFIT]]/Table16[[#This Row],[PIP RISK]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -713,18 +741,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBF4872-442A-4D9E-8622-A21B8B2C8E1C}">
-  <dimension ref="B4:O34"/>
+  <dimension ref="B4:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="15" width="20.7109375" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="113.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="6" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -732,1341 +762,1241 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="9">
+        <v>30</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3">
-        <v>30</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>15</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="H5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>15</v>
+      </c>
+      <c r="J5" s="9">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
         <v>3</v>
       </c>
-      <c r="L5" s="3">
+      <c r="K5" s="9">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>0.2</v>
       </c>
-      <c r="M5" s="4">
-        <v>45</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="L5" s="7">
+        <v>45</v>
+      </c>
+      <c r="M5" s="9">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
         <v>9</v>
       </c>
-      <c r="O5" s="3">
+      <c r="N5" s="9">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+    <row r="6" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="9">
+        <v>28.21</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15</v>
+      </c>
+      <c r="J6" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>2.8210000000000002</v>
+      </c>
+      <c r="K6" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0.18806666666666669</v>
+      </c>
+      <c r="L6" s="7">
+        <v>65</v>
+      </c>
+      <c r="M6" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>12.224333333333334</v>
+      </c>
+      <c r="N6" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9">
+        <v>28.21</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="I7" s="7">
+        <v>15</v>
+      </c>
+      <c r="J7" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>4.2314999999999996</v>
+      </c>
+      <c r="K7" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0.28209999999999996</v>
+      </c>
+      <c r="L7" s="7">
+        <v>45</v>
+      </c>
+      <c r="M7" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>12.694499999999998</v>
+      </c>
+      <c r="N7" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9">
+        <v>36.67</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>15</v>
+      </c>
+      <c r="J8" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>3.6670000000000003</v>
+      </c>
+      <c r="K8" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0.24446666666666669</v>
+      </c>
+      <c r="L8" s="7">
+        <v>45</v>
+      </c>
+      <c r="M8" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>11.001000000000001</v>
+      </c>
+      <c r="N8" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9">
+        <v>36.67</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>15</v>
+      </c>
+      <c r="J9" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>3.6670000000000003</v>
+      </c>
+      <c r="K9" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0.24446666666666669</v>
+      </c>
+      <c r="L9" s="7">
+        <v>45</v>
+      </c>
+      <c r="M9" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>11.001000000000001</v>
+      </c>
+      <c r="N9" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="9">
+        <v>36.67</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>15</v>
+      </c>
+      <c r="J10" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>3.6670000000000003</v>
+      </c>
+      <c r="K10" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0.24446666666666669</v>
+      </c>
+      <c r="L10" s="7">
+        <v>45</v>
+      </c>
+      <c r="M10" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>11.001000000000001</v>
+      </c>
+      <c r="N10" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>15</v>
+      </c>
+      <c r="J11" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>45</v>
+      </c>
+      <c r="M11" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>15</v>
+      </c>
+      <c r="J12" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>45</v>
+      </c>
+      <c r="M12" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>15</v>
+      </c>
+      <c r="J13" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>45</v>
+      </c>
+      <c r="M13" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>15</v>
+      </c>
+      <c r="J14" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>45</v>
+      </c>
+      <c r="M14" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>11</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>15</v>
+      </c>
+      <c r="J15" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>45</v>
+      </c>
+      <c r="M15" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3">
-        <f>IF(H5="GOOD",G5+N5,G5-K5)</f>
+      <c r="C16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>15</v>
+      </c>
+      <c r="J16" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>45</v>
+      </c>
+      <c r="M16" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>15</v>
+      </c>
+      <c r="J17" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>45</v>
+      </c>
+      <c r="M17" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>15</v>
+      </c>
+      <c r="J18" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>45</v>
+      </c>
+      <c r="M18" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>15</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>15</v>
+      </c>
+      <c r="J19" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>45</v>
+      </c>
+      <c r="M19" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>16</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>15</v>
+      </c>
+      <c r="J20" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>45</v>
+      </c>
+      <c r="M20" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>17</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>15</v>
+      </c>
+      <c r="J21" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>45</v>
+      </c>
+      <c r="M21" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>18</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>15</v>
+      </c>
+      <c r="J22" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>45</v>
+      </c>
+      <c r="M22" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>19</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>15</v>
+      </c>
+      <c r="J23" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <v>45</v>
+      </c>
+      <c r="M23" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>20</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>15</v>
+      </c>
+      <c r="J24" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <v>45</v>
+      </c>
+      <c r="M24" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>21</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>15</v>
+      </c>
+      <c r="J25" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <v>45</v>
+      </c>
+      <c r="M25" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>22</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>15</v>
+      </c>
+      <c r="J26" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <v>45</v>
+      </c>
+      <c r="M26" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
+        <v>23</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I27" s="7">
+        <v>15</v>
+      </c>
+      <c r="J27" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <v>45</v>
+      </c>
+      <c r="M27" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
+        <v>24</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>15</v>
+      </c>
+      <c r="J28" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>45</v>
+      </c>
+      <c r="M28" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
+        <v>25</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>15</v>
+      </c>
+      <c r="J29" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>45</v>
+      </c>
+      <c r="M29" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <v>26</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>15</v>
+      </c>
+      <c r="J30" s="9">
+        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="9">
+        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>45</v>
+      </c>
+      <c r="M30" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="9">
+        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
         <v>27</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>15</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="C31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>15</v>
+      </c>
+      <c r="J31" s="9">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>2.7</v>
-      </c>
-      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="M6" s="4">
-        <v>45</v>
-      </c>
-      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>45</v>
+      </c>
+      <c r="M31" s="9">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>8.1000000000000014</v>
-      </c>
-      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3">
-        <f t="shared" ref="G7:G34" si="0">IF(H6="GOOD",G6+N6,G6-K6)</f>
-        <v>24.3</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J7" s="4">
-        <v>15</v>
-      </c>
-      <c r="K7" s="3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <v>28</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>15</v>
+      </c>
+      <c r="J32" s="9">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="M7" s="4">
-        <v>45</v>
-      </c>
-      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>45</v>
+      </c>
+      <c r="M32" s="9">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>7.29</v>
-      </c>
-      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="9">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>21.87</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="4">
-        <v>15</v>
-      </c>
-      <c r="K8" s="3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <v>29</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I33" s="7">
+        <v>15</v>
+      </c>
+      <c r="J33" s="9">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>2.1870000000000003</v>
-      </c>
-      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0.14580000000000001</v>
-      </c>
-      <c r="M8" s="4">
-        <v>45</v>
-      </c>
-      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>45</v>
+      </c>
+      <c r="M33" s="9">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>6.5610000000000008</v>
-      </c>
-      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>19.683</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>15</v>
-      </c>
-      <c r="K9" s="3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <v>30</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>15</v>
+      </c>
+      <c r="J34" s="9">
         <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>1.9683000000000002</v>
-      </c>
-      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
         <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0.13122</v>
-      </c>
-      <c r="M9" s="4">
-        <v>45</v>
-      </c>
-      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <v>45</v>
+      </c>
+      <c r="M34" s="9">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>5.9049000000000005</v>
-      </c>
-      <c r="O9" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>17.714700000000001</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J10" s="4">
-        <v>15</v>
-      </c>
-      <c r="K10" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>1.7714700000000001</v>
-      </c>
-      <c r="L10" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0.11809800000000001</v>
-      </c>
-      <c r="M10" s="4">
-        <v>45</v>
-      </c>
-      <c r="N10" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>5.3144100000000005</v>
-      </c>
-      <c r="O10" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>15.94323</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J11" s="4">
-        <v>15</v>
-      </c>
-      <c r="K11" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>1.5943230000000002</v>
-      </c>
-      <c r="L11" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>0.10628820000000001</v>
-      </c>
-      <c r="M11" s="4">
-        <v>45</v>
-      </c>
-      <c r="N11" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>4.7829690000000005</v>
-      </c>
-      <c r="O11" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="3">
-        <f t="shared" si="0"/>
-        <v>14.348907000000001</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>15</v>
-      </c>
-      <c r="K12" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>1.4348907000000002</v>
-      </c>
-      <c r="L12" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>9.5659380000000016E-2</v>
-      </c>
-      <c r="M12" s="4">
-        <v>45</v>
-      </c>
-      <c r="N12" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>4.3046721000000003</v>
-      </c>
-      <c r="O12" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3">
-        <f t="shared" si="0"/>
-        <v>12.9140163</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J13" s="4">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>1.2914016300000002</v>
-      </c>
-      <c r="L13" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>8.6093442000000006E-2</v>
-      </c>
-      <c r="M13" s="4">
-        <v>45</v>
-      </c>
-      <c r="N13" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>3.8742048900000001</v>
-      </c>
-      <c r="O13" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="3">
-        <f t="shared" si="0"/>
-        <v>11.622614670000001</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J14" s="4">
-        <v>15</v>
-      </c>
-      <c r="K14" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>1.1622614670000002</v>
-      </c>
-      <c r="L14" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>7.7484097800000012E-2</v>
-      </c>
-      <c r="M14" s="4">
-        <v>45</v>
-      </c>
-      <c r="N14" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>3.4867844010000004</v>
-      </c>
-      <c r="O14" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <v>11</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3">
-        <f t="shared" si="0"/>
-        <v>10.460353203</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J15" s="4">
-        <v>15</v>
-      </c>
-      <c r="K15" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>1.0460353203000001</v>
-      </c>
-      <c r="L15" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>6.9735688020000006E-2</v>
-      </c>
-      <c r="M15" s="4">
-        <v>45</v>
-      </c>
-      <c r="N15" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>3.1381059609000004</v>
-      </c>
-      <c r="O15" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>9.4143178827000007</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J16" s="4">
-        <v>15</v>
-      </c>
-      <c r="K16" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.94143178827000007</v>
-      </c>
-      <c r="L16" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>6.2762119217999998E-2</v>
-      </c>
-      <c r="M16" s="4">
-        <v>45</v>
-      </c>
-      <c r="N16" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>2.8242953648099998</v>
-      </c>
-      <c r="O16" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <v>13</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>8.4728860944300006</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J17" s="4">
-        <v>15</v>
-      </c>
-      <c r="K17" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.84728860944300011</v>
-      </c>
-      <c r="L17" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>5.6485907296200004E-2</v>
-      </c>
-      <c r="M17" s="4">
-        <v>45</v>
-      </c>
-      <c r="N17" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>2.5418658283290001</v>
-      </c>
-      <c r="O17" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <v>14</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="3">
-        <f t="shared" si="0"/>
-        <v>7.6255974849870007</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J18" s="4">
-        <v>15</v>
-      </c>
-      <c r="K18" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.76255974849870012</v>
-      </c>
-      <c r="L18" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>5.0837316566580006E-2</v>
-      </c>
-      <c r="M18" s="4">
-        <v>45</v>
-      </c>
-      <c r="N18" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>2.2876792454961001</v>
-      </c>
-      <c r="O18" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
-        <v>15</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="3">
-        <f t="shared" si="0"/>
-        <v>6.8630377364883008</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J19" s="4">
-        <v>15</v>
-      </c>
-      <c r="K19" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.68630377364883011</v>
-      </c>
-      <c r="L19" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>4.5753584909922006E-2</v>
-      </c>
-      <c r="M19" s="4">
-        <v>45</v>
-      </c>
-      <c r="N19" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>2.0589113209464904</v>
-      </c>
-      <c r="O19" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
-        <v>16</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="3">
-        <f t="shared" si="0"/>
-        <v>6.1767339628394708</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J20" s="4">
-        <v>15</v>
-      </c>
-      <c r="K20" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.61767339628394713</v>
-      </c>
-      <c r="L20" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>4.1178226418929806E-2</v>
-      </c>
-      <c r="M20" s="4">
-        <v>45</v>
-      </c>
-      <c r="N20" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>1.8530201888518412</v>
-      </c>
-      <c r="O20" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
-        <v>17</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3">
-        <f t="shared" si="0"/>
-        <v>5.5590605665555239</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J21" s="4">
-        <v>15</v>
-      </c>
-      <c r="K21" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.55590605665555237</v>
-      </c>
-      <c r="L21" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3.7060403777036822E-2</v>
-      </c>
-      <c r="M21" s="4">
-        <v>45</v>
-      </c>
-      <c r="N21" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>1.667718169966657</v>
-      </c>
-      <c r="O21" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
-        <v>18</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="3">
-        <f t="shared" si="0"/>
-        <v>5.0031545098999715</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J22" s="4">
-        <v>15</v>
-      </c>
-      <c r="K22" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.50031545098999719</v>
-      </c>
-      <c r="L22" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3.3354363399333148E-2</v>
-      </c>
-      <c r="M22" s="4">
-        <v>45</v>
-      </c>
-      <c r="N22" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>1.5009463529699916</v>
-      </c>
-      <c r="O22" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
-        <v>19</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="3">
-        <f t="shared" si="0"/>
-        <v>4.5028390589099745</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J23" s="4">
-        <v>15</v>
-      </c>
-      <c r="K23" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.45028390589099748</v>
-      </c>
-      <c r="L23" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3.0018927059399833E-2</v>
-      </c>
-      <c r="M23" s="4">
-        <v>45</v>
-      </c>
-      <c r="N23" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>1.3508517176729924</v>
-      </c>
-      <c r="O23" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
-        <v>20</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="3">
-        <f t="shared" si="0"/>
-        <v>4.052555153018977</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J24" s="4">
-        <v>15</v>
-      </c>
-      <c r="K24" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.40525551530189774</v>
-      </c>
-      <c r="L24" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>2.701703435345985E-2</v>
-      </c>
-      <c r="M24" s="4">
-        <v>45</v>
-      </c>
-      <c r="N24" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>1.2157665459056932</v>
-      </c>
-      <c r="O24" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
-        <v>21</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="3">
-        <f t="shared" si="0"/>
-        <v>3.6472996377170794</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J25" s="4">
-        <v>15</v>
-      </c>
-      <c r="K25" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.36472996377170797</v>
-      </c>
-      <c r="L25" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>2.4315330918113866E-2</v>
-      </c>
-      <c r="M25" s="4">
-        <v>45</v>
-      </c>
-      <c r="N25" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>1.094189891315124</v>
-      </c>
-      <c r="O25" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
-        <v>22</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="3">
-        <f t="shared" si="0"/>
-        <v>3.2825696739453716</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J26" s="4">
-        <v>15</v>
-      </c>
-      <c r="K26" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.32825696739453719</v>
-      </c>
-      <c r="L26" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>2.1883797826302478E-2</v>
-      </c>
-      <c r="M26" s="4">
-        <v>45</v>
-      </c>
-      <c r="N26" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0.98477090218361152</v>
-      </c>
-      <c r="O26" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="4">
-        <v>23</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="3">
-        <f t="shared" si="0"/>
-        <v>2.9543127065508346</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J27" s="4">
-        <v>15</v>
-      </c>
-      <c r="K27" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.29543127065508346</v>
-      </c>
-      <c r="L27" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>1.9695418043672232E-2</v>
-      </c>
-      <c r="M27" s="4">
-        <v>45</v>
-      </c>
-      <c r="N27" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0.88629381196525048</v>
-      </c>
-      <c r="O27" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
-        <v>24</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="3">
-        <f t="shared" si="0"/>
-        <v>2.6588814358957511</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J28" s="4">
-        <v>15</v>
-      </c>
-      <c r="K28" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.26588814358957513</v>
-      </c>
-      <c r="L28" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>1.7725876239305008E-2</v>
-      </c>
-      <c r="M28" s="4">
-        <v>45</v>
-      </c>
-      <c r="N28" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0.7976644307687254</v>
-      </c>
-      <c r="O28" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
-        <v>25</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="3">
-        <f t="shared" si="0"/>
-        <v>2.3929932923061759</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J29" s="4">
-        <v>15</v>
-      </c>
-      <c r="K29" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.23929932923061759</v>
-      </c>
-      <c r="L29" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>1.5953288615374504E-2</v>
-      </c>
-      <c r="M29" s="4">
-        <v>45</v>
-      </c>
-      <c r="N29" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0.71789798769185265</v>
-      </c>
-      <c r="O29" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
-        <v>26</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1536939630755585</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J30" s="4">
-        <v>15</v>
-      </c>
-      <c r="K30" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.21536939630755586</v>
-      </c>
-      <c r="L30" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>1.4357959753837057E-2</v>
-      </c>
-      <c r="M30" s="4">
-        <v>45</v>
-      </c>
-      <c r="N30" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0.64610818892266753</v>
-      </c>
-      <c r="O30" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
-        <v>27</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="3">
-        <f t="shared" si="0"/>
-        <v>1.9383245667680027</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J31" s="4">
-        <v>15</v>
-      </c>
-      <c r="K31" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.19383245667680027</v>
-      </c>
-      <c r="L31" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>1.2922163778453351E-2</v>
-      </c>
-      <c r="M31" s="4">
-        <v>45</v>
-      </c>
-      <c r="N31" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0.58149737003040081</v>
-      </c>
-      <c r="O31" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
-        <v>28</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7444921100912025</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J32" s="4">
-        <v>15</v>
-      </c>
-      <c r="K32" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.17444921100912025</v>
-      </c>
-      <c r="L32" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>1.1629947400608017E-2</v>
-      </c>
-      <c r="M32" s="4">
-        <v>45</v>
-      </c>
-      <c r="N32" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0.52334763302736076</v>
-      </c>
-      <c r="O32" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
-        <v>29</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="3">
-        <f t="shared" si="0"/>
-        <v>1.5700428990820823</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J33" s="4">
-        <v>15</v>
-      </c>
-      <c r="K33" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.15700428990820825</v>
-      </c>
-      <c r="L33" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>1.0466952660547217E-2</v>
-      </c>
-      <c r="M33" s="4">
-        <v>45</v>
-      </c>
-      <c r="N33" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0.47101286972462481</v>
-      </c>
-      <c r="O33" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
-        <v>30</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="3">
-        <f t="shared" si="0"/>
-        <v>1.413038609173874</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J34" s="4">
-        <v>15</v>
-      </c>
-      <c r="K34" s="3">
-        <f>Table15[[#This Row],[TRADING CAPITAL]]*Table15[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
-        <v>0.14130386091738742</v>
-      </c>
-      <c r="L34" s="3">
-        <f>Table15[[#This Row],[USD RISK]]/Table15[[#This Row],[PIP RISK]]</f>
-        <v>9.4202573944924938E-3</v>
-      </c>
-      <c r="M34" s="4">
-        <v>45</v>
-      </c>
-      <c r="N34" s="3">
-        <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]*Table15[[#This Row],[PIP VALUE]]</f>
-        <v>0.42391158275216223</v>
-      </c>
-      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9">
         <f>Table15[[#This Row],[PIP EXPECTED PROFIT]]/Table15[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H5:H34">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="BAD">
-      <formula>NOT(ISERROR(SEARCH("BAD",H5)))</formula>
+  <conditionalFormatting sqref="G5:G34">
+    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="BAD">
+      <formula>NOT(ISERROR(SEARCH("BAD",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="GOOD">
-      <formula>NOT(ISERROR(SEARCH("GOOD",H5)))</formula>
+    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="GOOD">
+      <formula>NOT(ISERROR(SEARCH("GOOD",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2079,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFC13FA-2689-4E03-847D-D8C059BA450B}">
-  <dimension ref="C3:K33"/>
+  <dimension ref="C3:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E33"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2569,7 +2499,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" ref="D17:D33" si="1">D16+J16</f>
+        <f t="shared" ref="D17:D35" si="1">D16+J16</f>
         <v>803.78393672559457</v>
       </c>
       <c r="E17" s="2">
@@ -3138,6 +3068,686 @@
         <v>1128.2258016175369</v>
       </c>
       <c r="K33" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="4">
+        <v>31</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="1"/>
+        <v>8649.7311457344495</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F34" s="3">
+        <v>15</v>
+      </c>
+      <c r="G34" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>259.49193437203348</v>
+      </c>
+      <c r="H34" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>17.299462291468899</v>
+      </c>
+      <c r="I34" s="3">
+        <v>45</v>
+      </c>
+      <c r="J34" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>778.47580311610045</v>
+      </c>
+      <c r="K34" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35" s="4">
+        <v>32</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="1"/>
+        <v>9428.2069488505495</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F35" s="3">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>282.8462084655165</v>
+      </c>
+      <c r="H35" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>18.856413897701099</v>
+      </c>
+      <c r="I35" s="3">
+        <v>45</v>
+      </c>
+      <c r="J35" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>848.53862539654949</v>
+      </c>
+      <c r="K35" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="4">
+        <v>33</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" ref="D36:D53" si="2">D35+J35</f>
+        <v>10276.745574247099</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F36" s="3">
+        <v>15</v>
+      </c>
+      <c r="G36" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>308.30236722741296</v>
+      </c>
+      <c r="H36" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>20.553491148494196</v>
+      </c>
+      <c r="I36" s="3">
+        <v>45</v>
+      </c>
+      <c r="J36" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>924.90710168223882</v>
+      </c>
+      <c r="K36" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="4">
+        <v>34</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="2"/>
+        <v>11201.652675929337</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F37" s="3">
+        <v>15</v>
+      </c>
+      <c r="G37" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>336.04958027788012</v>
+      </c>
+      <c r="H37" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>22.403305351858673</v>
+      </c>
+      <c r="I37" s="3">
+        <v>45</v>
+      </c>
+      <c r="J37" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>1008.1487408336403</v>
+      </c>
+      <c r="K37" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="4">
+        <v>35</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="2"/>
+        <v>12209.801416762977</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F38" s="3">
+        <v>15</v>
+      </c>
+      <c r="G38" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>366.29404250288928</v>
+      </c>
+      <c r="H38" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>24.419602833525953</v>
+      </c>
+      <c r="I38" s="3">
+        <v>45</v>
+      </c>
+      <c r="J38" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>1098.882127508668</v>
+      </c>
+      <c r="K38" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="4">
+        <v>36</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="2"/>
+        <v>13308.683544271646</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F39" s="3">
+        <v>15</v>
+      </c>
+      <c r="G39" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>399.26050632814935</v>
+      </c>
+      <c r="H39" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>26.61736708854329</v>
+      </c>
+      <c r="I39" s="3">
+        <v>45</v>
+      </c>
+      <c r="J39" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>1197.781518984448</v>
+      </c>
+      <c r="K39" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="4">
+        <v>37</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="2"/>
+        <v>14506.465063256093</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F40" s="3">
+        <v>15</v>
+      </c>
+      <c r="G40" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>435.19395189768278</v>
+      </c>
+      <c r="H40" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>29.012930126512185</v>
+      </c>
+      <c r="I40" s="3">
+        <v>45</v>
+      </c>
+      <c r="J40" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>1305.5818556930483</v>
+      </c>
+      <c r="K40" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="4">
+        <v>38</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="2"/>
+        <v>15812.046918949141</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F41" s="3">
+        <v>15</v>
+      </c>
+      <c r="G41" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>474.36140756847425</v>
+      </c>
+      <c r="H41" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>31.624093837898283</v>
+      </c>
+      <c r="I41" s="3">
+        <v>45</v>
+      </c>
+      <c r="J41" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>1423.0842227054227</v>
+      </c>
+      <c r="K41" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="4">
+        <v>39</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="2"/>
+        <v>17235.131141654565</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F42" s="3">
+        <v>15</v>
+      </c>
+      <c r="G42" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>517.05393424963688</v>
+      </c>
+      <c r="H42" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>34.470262283309125</v>
+      </c>
+      <c r="I42" s="3">
+        <v>45</v>
+      </c>
+      <c r="J42" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>1551.1618027489108</v>
+      </c>
+      <c r="K42" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="4">
+        <v>40</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="2"/>
+        <v>18786.292944403474</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F43" s="3">
+        <v>15</v>
+      </c>
+      <c r="G43" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>563.58878833210417</v>
+      </c>
+      <c r="H43" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>37.572585888806948</v>
+      </c>
+      <c r="I43" s="3">
+        <v>45</v>
+      </c>
+      <c r="J43" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>1690.7663649963126</v>
+      </c>
+      <c r="K43" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="4">
+        <v>41</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="2"/>
+        <v>20477.059309399789</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F44" s="3">
+        <v>15</v>
+      </c>
+      <c r="G44" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>614.31177928199361</v>
+      </c>
+      <c r="H44" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>40.954118618799576</v>
+      </c>
+      <c r="I44" s="3">
+        <v>45</v>
+      </c>
+      <c r="J44" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>1842.9353378459809</v>
+      </c>
+      <c r="K44" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C45" s="4">
+        <v>42</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="2"/>
+        <v>22319.99464724577</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F45" s="3">
+        <v>15</v>
+      </c>
+      <c r="G45" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>669.59983941737312</v>
+      </c>
+      <c r="H45" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>44.639989294491542</v>
+      </c>
+      <c r="I45" s="3">
+        <v>45</v>
+      </c>
+      <c r="J45" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>2008.7995182521195</v>
+      </c>
+      <c r="K45" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="4">
+        <v>43</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="2"/>
+        <v>24328.794165497889</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F46" s="3">
+        <v>15</v>
+      </c>
+      <c r="G46" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>729.86382496493661</v>
+      </c>
+      <c r="H46" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>48.657588330995772</v>
+      </c>
+      <c r="I46" s="3">
+        <v>45</v>
+      </c>
+      <c r="J46" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>2189.5914748948098</v>
+      </c>
+      <c r="K46" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C47" s="4">
+        <v>44</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="2"/>
+        <v>26518.385640392698</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F47" s="3">
+        <v>15</v>
+      </c>
+      <c r="G47" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>795.55156921178093</v>
+      </c>
+      <c r="H47" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>53.036771280785395</v>
+      </c>
+      <c r="I47" s="3">
+        <v>45</v>
+      </c>
+      <c r="J47" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>2386.6547076353427</v>
+      </c>
+      <c r="K47" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C48" s="4">
+        <v>45</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="2"/>
+        <v>28905.04034802804</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F48" s="3">
+        <v>15</v>
+      </c>
+      <c r="G48" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>867.15121044084117</v>
+      </c>
+      <c r="H48" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>57.810080696056076</v>
+      </c>
+      <c r="I48" s="3">
+        <v>45</v>
+      </c>
+      <c r="J48" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>2601.4536313225235</v>
+      </c>
+      <c r="K48" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C49" s="4">
+        <v>46</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="2"/>
+        <v>31506.493979350562</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F49" s="3">
+        <v>15</v>
+      </c>
+      <c r="G49" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>945.19481938051683</v>
+      </c>
+      <c r="H49" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>63.012987958701125</v>
+      </c>
+      <c r="I49" s="3">
+        <v>45</v>
+      </c>
+      <c r="J49" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>2835.5844581415504</v>
+      </c>
+      <c r="K49" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C50" s="4">
+        <v>47</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="2"/>
+        <v>34342.078437492113</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F50" s="3">
+        <v>15</v>
+      </c>
+      <c r="G50" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>1030.2623531247634</v>
+      </c>
+      <c r="H50" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>68.684156874984225</v>
+      </c>
+      <c r="I50" s="3">
+        <v>45</v>
+      </c>
+      <c r="J50" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>3090.78705937429</v>
+      </c>
+      <c r="K50" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C51" s="4">
+        <v>48</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="2"/>
+        <v>37432.865496866405</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F51" s="3">
+        <v>15</v>
+      </c>
+      <c r="G51" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>1122.9859649059922</v>
+      </c>
+      <c r="H51" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>74.865730993732811</v>
+      </c>
+      <c r="I51" s="3">
+        <v>45</v>
+      </c>
+      <c r="J51" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>3368.9578947179766</v>
+      </c>
+      <c r="K51" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C52" s="4">
+        <v>49</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="2"/>
+        <v>40801.823391584381</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F52" s="3">
+        <v>15</v>
+      </c>
+      <c r="G52" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>1224.0547017475315</v>
+      </c>
+      <c r="H52" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>81.60364678316877</v>
+      </c>
+      <c r="I52" s="3">
+        <v>45</v>
+      </c>
+      <c r="J52" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>3672.1641052425948</v>
+      </c>
+      <c r="K52" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="4">
+        <v>50</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="2"/>
+        <v>44473.987496826972</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F53" s="3">
+        <v>15</v>
+      </c>
+      <c r="G53" s="3">
+        <f>Table1[[#This Row],[TRADING CAPITAL]]*Table1[[#This Row],[ACCOUNT RISK PERCENTAGE]]</f>
+        <v>1334.2196249048091</v>
+      </c>
+      <c r="H53" s="3">
+        <f>Table1[[#This Row],[USD RISK]]/Table1[[#This Row],[PIP RISK]]</f>
+        <v>88.947974993653943</v>
+      </c>
+      <c r="I53" s="3">
+        <v>45</v>
+      </c>
+      <c r="J53" s="3">
+        <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]*Table1[[#This Row],[PIP VALUE]]</f>
+        <v>4002.6588747144274</v>
+      </c>
+      <c r="K53" s="3">
         <f>Table1[[#This Row],[PIP EXPECTED PROFIT]]/Table1[[#This Row],[PIP RISK]]</f>
         <v>3</v>
       </c>
